--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$29</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$28</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="filtro" vbProcedure="false">TestCases!$A$9:$S$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="171">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -307,6 +307,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f1ff8e5c279ec768d068feb01bd6d4e352d25d1d1d5f03e47ae0138c3badd1de.3bc2edcda5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
     <t xml:space="preserve">OK</t>
   </si>
   <si>
@@ -334,6 +337,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">f710617e9e496229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.bf51219d0accb9cecbc015fa5a08cbe0ada778de7ef77c03461a1ff88fed66d9.bdd0b0b2eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
   </si>
   <si>
@@ -356,6 +365,12 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 5" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6d1ee7d27f4ebec5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4db90688830c81f787815ac9542bc388c85ceabbe49177c258d079847e29bbaf.c5aeef3798^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -576,15 +591,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1146,12 +1152,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1269,9 +1275,9 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
   </cols>
   <sheetData>
@@ -2343,7 +2349,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3447,14 +3453,14 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.29"/>
@@ -3463,9 +3469,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="104.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="191.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="36.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="36.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="31.86"/>
@@ -3740,7 +3746,9 @@
       <c r="I10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
@@ -3751,7 +3759,7 @@
       <c r="R10" s="32"/>
       <c r="S10" s="33"/>
       <c r="T10" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,10 +3773,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="35" t="n">
         <v>45082</v>
@@ -3777,12 +3785,14 @@
         <v>20230605152117</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="31"/>
+        <v>61</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
@@ -3793,7 +3803,7 @@
       <c r="R11" s="32"/>
       <c r="S11" s="33"/>
       <c r="T11" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,16 +3817,26 @@
         <v>51</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="31"/>
+        <v>63</v>
+      </c>
+      <c r="F12" s="35" t="n">
+        <v>45093</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>20230616155103</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
@@ -3827,7 +3847,7 @@
       <c r="R12" s="32"/>
       <c r="S12" s="33"/>
       <c r="T12" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,10 +3861,10 @@
         <v>51</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F13" s="35" t="n">
         <v>45086</v>
@@ -3853,12 +3873,14 @@
         <v>20230609155325</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="31"/>
+        <v>69</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
@@ -3869,7 +3891,7 @@
       <c r="R13" s="32"/>
       <c r="S13" s="33"/>
       <c r="T13" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,15 +3905,23 @@
         <v>51</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="F14" s="35" t="n">
+        <v>45093</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>20230616160727</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
@@ -3903,7 +3933,7 @@
       <c r="R14" s="32"/>
       <c r="S14" s="33"/>
       <c r="T14" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3917,20 +3947,20 @@
         <v>51</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -3941,7 +3971,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
       <c r="T15" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,20 +3985,20 @@
         <v>51</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
@@ -3979,7 +4009,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
       <c r="T16" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,17 +4023,17 @@
         <v>51</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
@@ -4011,13 +4041,13 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="31"/>
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
       <c r="T17" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,20 +4061,20 @@
         <v>51</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -4055,7 +4085,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
       <c r="T18" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,20 +4099,20 @@
         <v>51</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -4093,7 +4123,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,17 +4137,17 @@
         <v>51</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
@@ -4129,7 +4159,7 @@
       <c r="R20" s="32"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,20 +4173,20 @@
         <v>51</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
@@ -4167,7 +4197,7 @@
       <c r="R21" s="32"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,20 +4211,20 @@
         <v>51</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
@@ -4205,7 +4235,7 @@
       <c r="R22" s="32"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4219,20 +4249,20 @@
         <v>51</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -4243,7 +4273,7 @@
       <c r="R23" s="32"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,20 +4287,20 @@
         <v>51</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -4281,7 +4311,7 @@
       <c r="R24" s="32"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,20 +4325,20 @@
         <v>51</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
@@ -4319,7 +4349,7 @@
       <c r="R25" s="32"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4333,20 +4363,20 @@
         <v>51</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
@@ -4357,7 +4387,7 @@
       <c r="R26" s="32"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,20 +4401,20 @@
         <v>51</v>
       </c>
       <c r="D27" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="31" t="s">
         <v>103</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>98</v>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
@@ -4395,7 +4425,7 @@
       <c r="R27" s="32"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,20 +4439,20 @@
         <v>51</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
@@ -4433,42 +4463,25 @@
       <c r="R28" s="32"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="n">
-        <v>191</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34" t="s">
-        <v>56</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F30" s="11"/>
@@ -13855,21 +13868,7 @@
       <c r="T581" s="14"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F582" s="11"/>
-      <c r="G582" s="11"/>
-      <c r="H582" s="11"/>
-      <c r="I582" s="11"/>
-      <c r="J582" s="12"/>
-      <c r="K582" s="12"/>
-      <c r="L582" s="12"/>
-      <c r="M582" s="12"/>
-      <c r="N582" s="12"/>
-      <c r="O582" s="12"/>
-      <c r="P582" s="12"/>
-      <c r="Q582" s="12"/>
-      <c r="R582" s="13"/>
-      <c r="S582" s="2"/>
-      <c r="T582" s="14"/>
+      <c r="T582" s="12"/>
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T583" s="12"/>
@@ -14063,9 +14062,7 @@
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T646" s="12"/>
     </row>
-    <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T647" s="12"/>
-    </row>
+    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14412,9 +14409,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T29">
-    <sortState ref="A10:T29">
-      <sortCondition ref="A10:A29" customList=""/>
+  <autoFilter ref="A9:T28">
+    <sortState ref="A10:T28">
+      <sortCondition ref="A10:A28" customList=""/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
@@ -14427,11 +14424,11 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J29 L10:M29 O10:O29" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J28 L10:M28 O10:O28" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q29" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q28" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14461,10 +14458,10 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="102"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.86"/>
@@ -14480,10 +14477,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14491,125 +14488,125 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="C3" s="38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C10" s="38" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14617,111 +14614,111 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14729,111 +14726,111 @@
         <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14841,111 +14838,111 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14953,7 +14950,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>195</v>
@@ -14964,10 +14961,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>211</v>
@@ -14978,10 +14975,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>227</v>
@@ -14992,10 +14989,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>243</v>
@@ -15006,10 +15003,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>259</v>
@@ -15020,10 +15017,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>275</v>
@@ -15034,10 +15031,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>291</v>
@@ -15048,10 +15045,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>307</v>
@@ -15065,7 +15062,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>196</v>
@@ -15076,10 +15073,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>212</v>
@@ -15090,10 +15087,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>228</v>
@@ -15104,10 +15101,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>244</v>
@@ -15118,10 +15115,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>260</v>
@@ -15132,10 +15129,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>276</v>
@@ -15146,10 +15143,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>292</v>
@@ -15160,10 +15157,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>308</v>
@@ -16141,7 +16138,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -16158,18 +16155,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="172">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -526,6 +526,9 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In CareMed esiste un flag “Contiene informazioni sensibili”. Il referto di laboratorio generato con questo flag attiv potrà essere mandato in firma digitale e conterrà il tag di cui al test case nell’allegato XML, ma non verrà mai proposto per l’invio al fascicolo (non viene abilitata la funzione)</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT9_KO</t>
@@ -3453,11 +3456,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4149,7 +4152,9 @@
       <c r="J20" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
@@ -4173,10 +4178,10 @@
         <v>51</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="37"/>
@@ -4186,7 +4191,7 @@
         <v>76</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
@@ -4211,10 +4216,10 @@
         <v>51</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="37"/>
@@ -4224,7 +4229,7 @@
         <v>76</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
@@ -4249,10 +4254,10 @@
         <v>51</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="37"/>
@@ -4262,7 +4267,7 @@
         <v>76</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -4287,10 +4292,10 @@
         <v>51</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="37"/>
@@ -4300,7 +4305,7 @@
         <v>76</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -4325,10 +4330,10 @@
         <v>51</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="37"/>
@@ -4338,7 +4343,7 @@
         <v>76</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
@@ -4363,10 +4368,10 @@
         <v>51</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="37"/>
@@ -4376,7 +4381,7 @@
         <v>76</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
@@ -4401,10 +4406,10 @@
         <v>51</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="37"/>
@@ -4414,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
@@ -4439,10 +4444,10 @@
         <v>51</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="37"/>
@@ -4452,7 +4457,7 @@
         <v>76</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
@@ -14477,10 +14482,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14488,125 +14493,125 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="38" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14614,111 +14619,111 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14726,111 +14731,111 @@
         <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14838,111 +14843,111 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14950,7 +14955,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>195</v>
@@ -14961,10 +14966,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>211</v>
@@ -14975,10 +14980,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>227</v>
@@ -14989,10 +14994,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>243</v>
@@ -15003,10 +15008,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>259</v>
@@ -15017,10 +15022,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>275</v>
@@ -15031,10 +15036,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>291</v>
@@ -15045,10 +15050,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>307</v>
@@ -15062,7 +15067,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>196</v>
@@ -15073,10 +15078,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>212</v>
@@ -15087,10 +15092,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>228</v>
@@ -15101,10 +15106,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>244</v>
@@ -15115,10 +15120,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>260</v>
@@ -15129,10 +15134,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>276</v>
@@ -15143,10 +15148,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>292</v>
@@ -15157,10 +15162,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>308</v>
@@ -16155,7 +16160,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>83</v>
@@ -16163,7 +16168,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>76</v>

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="172">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3456,11 +3456,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3925,7 +3925,9 @@
       <c r="I14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="31"/>
+      <c r="J14" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="171">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -352,10 +352,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">26c69d879601c114</t>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.386ca4745f4026d713155e93f1ffbb24af97a509f18e357ac51281a86f96404d.6d7219c6ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">La codifica SpecimenType per I campioni di laboratorio non è implementata in CareMed. Lo sarà in una prossima release. Questo rende impossibile riprodurre il test case. </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT5</t>
@@ -424,9 +424,6 @@
       <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene effettuata validazione preventiva bloccante sull'applicativo CareMed di tutte le informazioni necessarie a generare un token per l'interazione con i servizi FSE. Se la validazione fallisce non è possibile firmare digitalmente il relativo documento da trasmettere e quindi nessuna trasmissione può essere iniziata.</t>
@@ -1278,9 +1275,9 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
   </cols>
   <sheetData>
@@ -2352,7 +2349,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3456,14 +3453,14 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.29"/>
@@ -3472,9 +3469,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="104.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="191.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="36.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="36.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="31.86"/>
@@ -3869,22 +3866,16 @@
       <c r="E13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="35" t="n">
-        <v>45086</v>
-      </c>
-      <c r="G13" s="30" t="n">
-        <v>20230609155325</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="K13" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
@@ -3962,10 +3953,10 @@
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
       <c r="J15" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>77</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -3976,7 +3967,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
       <c r="T15" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,20 +3981,20 @@
         <v>51</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>79</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>80</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>77</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
@@ -4014,7 +4005,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
       <c r="T16" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,17 +4019,17 @@
         <v>51</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>82</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
       <c r="J17" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
@@ -4046,13 +4037,13 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="31"/>
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
       <c r="T17" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4066,20 +4057,20 @@
         <v>51</v>
       </c>
       <c r="D18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>86</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -4090,7 +4081,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
       <c r="T18" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,20 +4095,20 @@
         <v>51</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
       <c r="J19" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -4128,7 +4119,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,20 +4133,20 @@
         <v>51</v>
       </c>
       <c r="D20" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>91</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>92</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
       <c r="J20" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
@@ -4166,7 +4157,7 @@
       <c r="R20" s="32"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4180,20 +4171,20 @@
         <v>51</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>95</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
       <c r="J21" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
@@ -4204,7 +4195,7 @@
       <c r="R21" s="32"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,20 +4209,20 @@
         <v>51</v>
       </c>
       <c r="D22" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>97</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>98</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
@@ -4242,7 +4233,7 @@
       <c r="R22" s="32"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,20 +4247,20 @@
         <v>51</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>99</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>100</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -4280,7 +4271,7 @@
       <c r="R23" s="32"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,20 +4285,20 @@
         <v>51</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>103</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
       <c r="J24" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -4318,7 +4309,7 @@
       <c r="R24" s="32"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,20 +4323,20 @@
         <v>51</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
       <c r="J25" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
@@ -4356,7 +4347,7 @@
       <c r="R25" s="32"/>
       <c r="S25" s="33"/>
       <c r="T25" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,20 +4361,20 @@
         <v>51</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
@@ -4394,7 +4385,7 @@
       <c r="R26" s="32"/>
       <c r="S26" s="33"/>
       <c r="T26" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,20 +4399,20 @@
         <v>51</v>
       </c>
       <c r="D27" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>109</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>110</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
       <c r="J27" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
@@ -4432,7 +4423,7 @@
       <c r="R27" s="32"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,20 +4437,20 @@
         <v>51</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>112</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
       <c r="J28" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
@@ -4470,7 +4461,7 @@
       <c r="R28" s="32"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14465,10 +14456,10 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="102"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.86"/>
@@ -14484,10 +14475,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14495,125 +14486,125 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>119</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="39" t="s">
         <v>128</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>131</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="39" t="s">
         <v>134</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>137</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="38" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14621,111 +14612,111 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14733,111 +14724,111 @@
         <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14845,111 +14836,111 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14957,7 +14948,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>195</v>
@@ -14968,10 +14959,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>211</v>
@@ -14982,10 +14973,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>227</v>
@@ -14996,10 +14987,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>243</v>
@@ -15010,10 +15001,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>259</v>
@@ -15024,10 +15015,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>275</v>
@@ -15038,10 +15029,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>291</v>
@@ -15052,10 +15043,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>307</v>
@@ -15069,7 +15060,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>196</v>
@@ -15080,10 +15071,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>212</v>
@@ -15094,10 +15085,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>228</v>
@@ -15108,10 +15099,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>244</v>
@@ -15122,10 +15113,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>260</v>
@@ -15136,10 +15127,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>276</v>
@@ -15150,10 +15141,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>292</v>
@@ -15164,10 +15155,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>308</v>
@@ -16145,7 +16136,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -16162,18 +16153,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -15,8 +15,9 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$28</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$47</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="filtro" vbProcedure="false">TestCases!$A$9:$S$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$28</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="218">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -593,6 +594,184 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">LDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5dab29cbf040a9f7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.2da0df9a6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5b1be6b07fcdb364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f73a318b27b3c51ae65cd4e64c63987c98fafb2b3da99aadce0d8bf93e67acd4.9cb72349be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7c50bb15f7c66ffb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f471faf3b361ba35abeee3a466d29264f060800cf8e1a724d97df1f6cd176191.d2a35091f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’implementazione della generazione della sezione “Inquadramento clinico iniziale” richiede una rifattorizzazione di alcune parti del software che é rimandata a una versione successiva di CareMed. Non è quindi possibile generare un CDA2 che soddisfi il test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile firmare digitalmente una relazione di dimissione in CareMed in mancanza di questa informazione. Nessuna trasmissione è quindi possibile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’implementazione della generazione della sezione “Inquadramento clinico iniziale” richiede una rifattorizzazione di alcune parti del software che é rimandata a una versione successiva di CareMed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile generare in CareMed 
+una terapia farmacologica alla dimissione 
+Priva dell’informazione richiesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è prevista, al momento in CareMed, la codifica del motivo del ricovero, è possibile solo inserire testo libero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La terapia farmacologica alla dimissione, se presente, è compilata a partire dal prontuario farmaceutico interno a CareMed. Non essendo possibile inserire manualmente un farmaco nello stesso prontuario se non è disponibile il codice ATC (l’unico codice gestito al momento) non è possibile riprodurre il test case.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
   </si>
   <si>
@@ -606,9 +785,6 @@
   </si>
   <si>
     <t xml:space="preserve">28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDO</t>
   </si>
   <si>
     <t xml:space="preserve">6,7,8,9</t>
@@ -3447,17 +3623,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3932,7 +4108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>28</v>
       </c>
@@ -3970,7 +4146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>36</v>
       </c>
@@ -4008,7 +4184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>44</v>
       </c>
@@ -4046,7 +4222,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
         <v>52</v>
       </c>
@@ -4084,7 +4260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
         <v>53</v>
       </c>
@@ -4122,7 +4298,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
         <v>54</v>
       </c>
@@ -4160,7 +4336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
         <v>55</v>
       </c>
@@ -4198,7 +4374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="n">
         <v>56</v>
       </c>
@@ -4236,7 +4412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
         <v>57</v>
       </c>
@@ -4274,7 +4450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
         <v>58</v>
       </c>
@@ -4312,7 +4488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="n">
         <v>59</v>
       </c>
@@ -4350,7 +4526,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="n">
         <v>60</v>
       </c>
@@ -4388,7 +4564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
         <v>61</v>
       </c>
@@ -4426,7 +4602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
         <v>62</v>
       </c>
@@ -4464,328 +4640,744 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="14"/>
+    <row r="29" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="35" t="n">
+        <v>45104</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>20230627164006</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="35" t="n">
+        <v>45104</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>20230627164015</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="35" t="n">
+        <v>45104</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>20230627175016</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="26" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="26" t="n">
+        <v>37</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26" t="n">
+        <v>45</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="26" t="n">
+        <v>63</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="26" t="n">
+        <v>64</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="26" t="n">
+        <v>65</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="26" t="n">
+        <v>66</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="26" t="n">
+        <v>67</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="26" t="n">
+        <v>68</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="26" t="n">
+        <v>69</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="26" t="n">
+        <v>70</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="26" t="n">
+        <v>71</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="26" t="n">
+        <v>72</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="26" t="n">
+        <v>73</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="26" t="n">
+        <v>74</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="34" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F48" s="11"/>
@@ -14407,9 +14999,14 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T28">
-    <sortState ref="A10:T28">
-      <sortCondition ref="A10:A28" customList=""/>
+  <autoFilter ref="A9:T47">
+    <filterColumn colId="19">
+      <customFilters and="true">
+        <customFilter operator="equal" val="OK"/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A10:T47">
+      <sortCondition ref="A10:A47" customList=""/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
@@ -14421,13 +15018,21 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J28 L10:M28 O10:O28" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J29 L10:M28 O10:O28 J30:J47" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q28" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L29:M44 O29:O47 M45 L46:M47" type="list">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q29:Q47" type="list">
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -14475,10 +15080,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14486,125 +15091,125 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C10" s="38" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14612,111 +15217,111 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C11" s="38" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C12" s="38" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C13" s="38" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C14" s="38" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C15" s="38" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C16" s="38" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C17" s="38" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C18" s="38" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14724,111 +15329,111 @@
         <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C19" s="38" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C20" s="38" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C21" s="38" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C22" s="38" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C23" s="38" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C24" s="38" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C25" s="38" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C26" s="38" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14836,111 +15441,111 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C27" s="38" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C28" s="38" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C29" s="38" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C30" s="38" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C31" s="38" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C32" s="38" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C33" s="38" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C34" s="38" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14948,7 +15553,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C35" s="38" t="n">
         <v>195</v>
@@ -14959,10 +15564,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C36" s="38" t="n">
         <v>211</v>
@@ -14973,10 +15578,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C37" s="38" t="n">
         <v>227</v>
@@ -14987,10 +15592,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C38" s="38" t="n">
         <v>243</v>
@@ -15001,10 +15606,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C39" s="38" t="n">
         <v>259</v>
@@ -15015,10 +15620,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C40" s="38" t="n">
         <v>275</v>
@@ -15029,10 +15634,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C41" s="38" t="n">
         <v>291</v>
@@ -15043,10 +15648,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C42" s="38" t="n">
         <v>307</v>
@@ -15060,7 +15665,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C43" s="38" t="n">
         <v>196</v>
@@ -15071,10 +15676,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C44" s="38" t="n">
         <v>212</v>
@@ -15085,10 +15690,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C45" s="38" t="n">
         <v>228</v>
@@ -15099,10 +15704,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C46" s="38" t="n">
         <v>244</v>
@@ -15113,10 +15718,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C47" s="38" t="n">
         <v>260</v>
@@ -15127,10 +15732,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C48" s="38" t="n">
         <v>276</v>
@@ -15141,10 +15746,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C49" s="38" t="n">
         <v>292</v>
@@ -15155,10 +15760,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C50" s="38" t="n">
         <v>308</v>
@@ -16153,7 +16758,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>82</v>
@@ -16161,7 +16766,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>68</v>

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -302,10 +302,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4f41c9698500e46f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f1ff8e5c279ec768d068feb01bd6d4e352d25d1d1d5f03e47ae0138c3badd1de.3bc2edcda5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">0535d587a27668f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f1ff8e5c279ec768d068feb01bd6d4e352d25d1d1d5f03e47ae0138c3badd1de.06dee78e38^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Si</t>
@@ -323,10 +323,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">6f732745328b0359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f31e4d3440c9bb44227da6452ab6de8b1892c651004bccfd16699dc537104fec.d7fc2f4b3c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">f401a8495f6dd30d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f31e4d3440c9bb44227da6452ab6de8b1892c651004bccfd16699dc537104fec.3d41fcb13c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT3</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">f710617e9e496229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.bf51219d0accb9cecbc015fa5a08cbe0ada778de7ef77c03461a1ff88fed66d9.bdd0b0b2eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.bf51219d0accb9cecbc015fa5a08cbe0ada778de7ef77c03461a1ff88fed66d9.7e93cf690a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
@@ -368,10 +368,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">6d1ee7d27f4ebec5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4db90688830c81f787815ac9542bc388c85ceabbe49177c258d079847e29bbaf.c5aeef3798^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">e4f779f375dc961b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4db90688830c81f787815ac9542bc388c85ceabbe49177c258d079847e29bbaf.f42ae0e461^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -605,10 +605,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">5dab29cbf040a9f7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.2da0df9a6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">205c54f9b25d20dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.c43d0707a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
@@ -619,10 +619,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">5b1be6b07fcdb364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f73a318b27b3c51ae65cd4e64c63987c98fafb2b3da99aadce0d8bf93e67acd4.9cb72349be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">9caa8a8765ff9e31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f73a318b27b3c51ae65cd4e64c63987c98fafb2b3da99aadce0d8bf93e67acd4.7c39b772ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -633,10 +633,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">7c50bb15f7c66ffb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f471faf3b361ba35abeee3a466d29264f060800cf8e1a724d97df1f6cd176191.d2a35091f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">926f699cf177b7e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f471faf3b361ba35abeee3a466d29264f060800cf8e1a724d97df1f6cd176191.50980d158e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
@@ -3629,11 +3629,11 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3911,10 +3911,10 @@
         <v>53</v>
       </c>
       <c r="F10" s="29" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G10" s="30" t="n">
-        <v>20230605101141</v>
+        <v>20230629112421</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>54</v>
@@ -3954,11 +3954,11 @@
       <c r="E11" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="35" t="n">
-        <v>45082</v>
+      <c r="F11" s="29" t="n">
+        <v>45106</v>
       </c>
       <c r="G11" s="30" t="n">
-        <v>20230605152117</v>
+        <v>20230629112430</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>60</v>
@@ -3998,11 +3998,11 @@
       <c r="E12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="35" t="n">
-        <v>45093</v>
+      <c r="F12" s="29" t="n">
+        <v>45106</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>20230616155103</v>
+        <v>20230629112438</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>64</v>
@@ -4080,11 +4080,11 @@
       <c r="E14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="35" t="n">
-        <v>45093</v>
+      <c r="F14" s="29" t="n">
+        <v>45106</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>20230616160727</v>
+        <v>20230629112455</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>72</v>
@@ -4656,11 +4656,11 @@
       <c r="E29" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="35" t="n">
-        <v>45104</v>
+      <c r="F29" s="29" t="n">
+        <v>45106</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>20230627164006</v>
+        <v>20230629124311</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>115</v>
@@ -4700,11 +4700,11 @@
       <c r="E30" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="35" t="n">
-        <v>45104</v>
+      <c r="F30" s="29" t="n">
+        <v>45106</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>20230627164015</v>
+        <v>20230629124320</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>119</v>
@@ -4744,11 +4744,11 @@
       <c r="E31" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="35" t="n">
-        <v>45104</v>
+      <c r="F31" s="29" t="n">
+        <v>45106</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>20230627175016</v>
+        <v>20230629124328</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>123</v>

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -15,9 +15,11 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$47</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$94</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="filtro" vbProcedure="false">TestCases!$A$9:$S$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">TestCases!$A$9:$T$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">TestCases!$A$9:$T$28</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="309">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -372,6 +374,62 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4db90688830c81f787815ac9542bc388c85ceabbe49177c258d079847e29bbaf.f42ae0e461^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205c54f9b25d20dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.c43d0707a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9caa8a8765ff9e31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f73a318b27b3c51ae65cd4e64c63987c98fafb2b3da99aadce0d8bf93e67acd4.7c39b772ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">926f699cf177b7e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f471faf3b361ba35abeee3a466d29264f060800cf8e1a724d97df1f6cd176191.50980d158e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’implementazione della generazione della sezione “Inquadramento clinico iniziale” richiede una rifattorizzazione di alcune parti del software che é rimandata a una versione successiva di CareMed. Non è quindi possibile generare un CDA2 che soddisfi il test case</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -433,6 +491,67 @@
     <t xml:space="preserve">KO</t>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Precondizioni:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
   </si>
   <si>
@@ -486,6 +605,61 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Precondizioni:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
@@ -499,6 +673,19 @@
     <t xml:space="preserve">Viene restituito un errore di trasmissione "non tecnico" in backoffice al trasmittente che è invitato a ripetere l'operazione. Il log completo dell'errore viene memorizzato in area accessibile all'assistenza Innogea</t>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT6_KO</t>
   </si>
   <si>
@@ -592,71 +779,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205c54f9b25d20dc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.c43d0707a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9caa8a8765ff9e31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f73a318b27b3c51ae65cd4e64c63987c98fafb2b3da99aadce0d8bf93e67acd4.7c39b772ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">926f699cf177b7e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f471faf3b361ba35abeee3a466d29264f060800cf8e1a724d97df1f6cd176191.50980d158e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’implementazione della generazione della sezione “Inquadramento clinico iniziale” richiede una rifattorizzazione di alcune parti del software che é rimandata a una versione successiva di CareMed. Non è quindi possibile generare un CDA2 che soddisfi il test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
@@ -772,6 +894,326 @@
     <t xml:space="preserve">La terapia farmacologica alla dimissione, se presente, è compilata a partire dal prontuario farmaceutico interno a CareMed. Non essendo possibile inserire manualmente un farmaco nello stesso prontuario se non è disponibile il codice ATC (l’unico codice gestito al momento) non è possibile riprodurre il test case.</t>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT20_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
   </si>
   <si>
@@ -793,9 +1235,6 @@
     <t xml:space="preserve">29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
   </si>
   <si>
-    <t xml:space="preserve">RAD</t>
-  </si>
-  <si>
     <t xml:space="preserve">11,12,13,14</t>
   </si>
   <si>
@@ -827,9 +1266,6 @@
   </si>
   <si>
     <t xml:space="preserve">35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSA</t>
   </si>
   <si>
     <t xml:space="preserve">147,148,149,150</t>
@@ -950,12 +1386,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1049,6 +1486,20 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1183,7 +1634,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1328,11 +1779,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1451,7 +1950,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2525,7 +3024,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3623,20 +4122,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
+      <selection pane="bottomRight" activeCell="A92" activeCellId="0" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.29"/>
@@ -4108,32 +4607,38 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="E15" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="29" t="n">
+        <v>45106</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>20230629124311</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J15" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>76</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K15" s="31"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -4143,35 +4648,41 @@
       <c r="R15" s="32"/>
       <c r="S15" s="33"/>
       <c r="T15" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="E16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="29" t="n">
+        <v>45106</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>20230629124320</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="J16" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>76</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K16" s="31"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
@@ -4181,72 +4692,78 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
       <c r="T16" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+        <v>84</v>
+      </c>
+      <c r="F17" s="29" t="n">
+        <v>45106</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>20230629124328</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="J17" s="31" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
-      <c r="P17" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
       <c r="T17" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F18" s="35"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -4257,12 +4774,12 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
       <c r="T18" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>50</v>
@@ -4271,20 +4788,20 @@
         <v>51</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="F19" s="35"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="31" t="s">
-        <v>89</v>
+      <c r="K19" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -4295,33 +4812,33 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>91</v>
       </c>
       <c r="F20" s="35"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="28" t="s">
         <v>92</v>
       </c>
       <c r="L20" s="31"/>
@@ -4333,88 +4850,80 @@
       <c r="R20" s="32"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="B21" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="38" t="n">
+        <v>31</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="B22" s="27" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="38" t="n">
+        <v>32</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="28" t="s">
+      <c r="C22" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>50</v>
@@ -4423,20 +4932,20 @@
         <v>51</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="F23" s="35"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="31" t="s">
-        <v>100</v>
+      <c r="K23" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -4447,34 +4956,34 @@
       <c r="R23" s="32"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="F24" s="35"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>103</v>
+      <c r="K24" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -4485,88 +4994,80 @@
       <c r="R24" s="32"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="n">
-        <v>59</v>
-      </c>
-      <c r="B25" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="38" t="n">
+        <v>39</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>50</v>
@@ -4575,191 +5076,169 @@
         <v>51</v>
       </c>
       <c r="D27" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>103</v>
-      </c>
+      <c r="K27" s="31"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
+      <c r="P27" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="Q27" s="31"/>
       <c r="R27" s="32"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F28" s="35"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>103</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K28" s="31"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
+      <c r="P28" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="Q28" s="31"/>
       <c r="R28" s="32"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="B29" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="38" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="S29" s="45"/>
+      <c r="T29" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="38" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>20230629124311</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="27" t="s">
+      <c r="E30" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>20230629124320</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="S30" s="45"/>
+      <c r="T30" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>20230629124328</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>116</v>
+      </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
@@ -4769,34 +5248,34 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F32" s="35"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
@@ -4807,34 +5286,34 @@
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>75</v>
+        <v>120</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="F33" s="35"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="28" t="s">
-        <v>76</v>
+      <c r="K33" s="31" t="s">
+        <v>122</v>
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
@@ -4845,34 +5324,34 @@
       <c r="R33" s="32"/>
       <c r="S33" s="33"/>
       <c r="T33" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>79</v>
+        <v>123</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="F34" s="35"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="28" t="s">
-        <v>76</v>
+      <c r="K34" s="31" t="s">
+        <v>125</v>
       </c>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
@@ -4883,72 +5362,72 @@
       <c r="R34" s="32"/>
       <c r="S34" s="33"/>
       <c r="T34" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>125</v>
+      </c>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
-      <c r="P35" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="P35" s="31"/>
       <c r="Q35" s="31"/>
       <c r="R35" s="32"/>
       <c r="S35" s="33"/>
       <c r="T35" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F36" s="35"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
@@ -4959,34 +5438,34 @@
       <c r="R36" s="32"/>
       <c r="S36" s="33"/>
       <c r="T36" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F37" s="35"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
@@ -4997,34 +5476,34 @@
       <c r="R37" s="32"/>
       <c r="S37" s="33"/>
       <c r="T37" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D38" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>136</v>
-      </c>
       <c r="F38" s="35"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
@@ -5035,34 +5514,34 @@
       <c r="R38" s="32"/>
       <c r="S38" s="33"/>
       <c r="T38" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D39" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>138</v>
-      </c>
       <c r="F39" s="35"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
@@ -5073,34 +5552,34 @@
       <c r="R39" s="32"/>
       <c r="S39" s="33"/>
       <c r="T39" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D40" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="F40" s="35"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
@@ -5111,34 +5590,34 @@
       <c r="R40" s="32"/>
       <c r="S40" s="33"/>
       <c r="T40" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F41" s="35"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
@@ -5149,34 +5628,34 @@
       <c r="R41" s="32"/>
       <c r="S41" s="33"/>
       <c r="T41" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F42" s="35"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
@@ -5187,34 +5666,34 @@
       <c r="R42" s="32"/>
       <c r="S42" s="33"/>
       <c r="T42" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="35"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -5225,34 +5704,34 @@
       <c r="R43" s="32"/>
       <c r="S43" s="33"/>
       <c r="T43" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F44" s="35"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -5263,35 +5742,36 @@
       <c r="R44" s="32"/>
       <c r="S44" s="33"/>
       <c r="T44" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F45" s="35"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
       <c r="J45" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="K45" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" s="31"/>
       <c r="M45" s="31"/>
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
@@ -5300,34 +5780,34 @@
       <c r="R45" s="32"/>
       <c r="S45" s="33"/>
       <c r="T45" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F46" s="35"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
@@ -5338,34 +5818,34 @@
       <c r="R46" s="32"/>
       <c r="S46" s="33"/>
       <c r="T46" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F47" s="35"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
@@ -5376,807 +5856,1629 @@
       <c r="R47" s="32"/>
       <c r="S47" s="33"/>
       <c r="T47" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="26" t="n">
+        <v>69</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="26" t="n">
+        <v>70</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="26" t="n">
+        <v>71</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="26" t="n">
+        <v>72</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="26" t="n">
+        <v>73</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="26" t="n">
+        <v>74</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="38" t="n">
+        <v>75</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="38" t="n">
+        <v>76</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="38" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="14"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="14"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="14"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="14"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="14"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="14"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="14"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="14"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="14"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="14"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="14"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="14"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="14"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="14"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="14"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="14"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="14"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="14"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="14"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="14"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="14"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="14"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="14"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="14"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="14"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="14"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="14"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="14"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="14"/>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="14"/>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="14"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="14"/>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="14"/>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="14"/>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="14"/>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="14"/>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="14"/>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="14"/>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="14"/>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="14"/>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="14"/>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="14"/>
+      <c r="B56" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="38" t="n">
+        <v>78</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="38" t="n">
+        <v>79</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="38" t="n">
+        <v>80</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="38" t="n">
+        <v>81</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="38" t="n">
+        <v>82</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="38" t="n">
+        <v>83</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="38" t="n">
+        <v>84</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="41"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="38" t="n">
+        <v>85</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="38" t="n">
+        <v>86</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="38" t="n">
+        <v>87</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="41"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="38" t="n">
+        <v>88</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" s="41"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="38" t="n">
+        <v>89</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="41"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="38" t="n">
+        <v>90</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="F69" s="41"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="38" t="n">
+        <v>91</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="41"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="38" t="n">
+        <v>92</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" s="41"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="38" t="n">
+        <v>93</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="38" t="n">
+        <v>151</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="38" t="n">
+        <v>152</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="F74" s="41"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="38" t="n">
+        <v>153</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" s="41"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="38" t="n">
+        <v>154</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F76" s="41"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="38" t="n">
+        <v>155</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77" s="41"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="38" t="n">
+        <v>156</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" s="41"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="38" t="n">
+        <v>157</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F79" s="41"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="38" t="n">
+        <v>158</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F80" s="41"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="38" t="n">
+        <v>159</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="F81" s="41"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="45"/>
+      <c r="T81" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="38" t="n">
+        <v>160</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" s="41"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
+      <c r="P82" s="43"/>
+      <c r="Q82" s="43"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="38" t="n">
+        <v>161</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="41"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="43"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="38" t="n">
+        <v>162</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F84" s="41"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="45"/>
+      <c r="T84" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="38" t="n">
+        <v>163</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F85" s="41"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="44"/>
+      <c r="S85" s="45"/>
+      <c r="T85" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="38" t="n">
+        <v>164</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="41"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="44"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="38" t="n">
+        <v>165</v>
+      </c>
+      <c r="B87" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="F87" s="41"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="38" t="n">
+        <v>166</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="F88" s="41"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="38" t="n">
+        <v>167</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="F89" s="41"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="38" t="n">
+        <v>168</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F90" s="41"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="44"/>
+      <c r="S90" s="45"/>
+      <c r="T90" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="38" t="n">
+        <v>169</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E91" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="F91" s="41"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="26" t="n">
+        <v>369</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F92" s="48"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="26" t="n">
+        <v>370</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="31"/>
+      <c r="R93" s="32"/>
+      <c r="S93" s="33"/>
+      <c r="T93" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="26" t="n">
+        <v>374</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="31"/>
+      <c r="R94" s="32"/>
+      <c r="S94" s="33"/>
+      <c r="T94" s="34" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F95" s="11"/>
@@ -14441,21 +15743,7 @@
       <c r="T580" s="14"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F581" s="11"/>
-      <c r="G581" s="11"/>
-      <c r="H581" s="11"/>
-      <c r="I581" s="11"/>
-      <c r="J581" s="12"/>
-      <c r="K581" s="12"/>
-      <c r="L581" s="12"/>
-      <c r="M581" s="12"/>
-      <c r="N581" s="12"/>
-      <c r="O581" s="12"/>
-      <c r="P581" s="12"/>
-      <c r="Q581" s="12"/>
-      <c r="R581" s="13"/>
-      <c r="S581" s="2"/>
-      <c r="T581" s="14"/>
+      <c r="T581" s="12"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T582" s="12"/>
@@ -14649,9 +15937,7 @@
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T645" s="12"/>
     </row>
-    <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T646" s="12"/>
-    </row>
+    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14999,16 +16285,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T47">
-    <filterColumn colId="19">
-      <customFilters and="true">
-        <customFilter operator="equal" val="OK"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A10:T47">
-      <sortCondition ref="A10:A47" customList=""/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A9:T94"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -15018,21 +16295,37 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J29 L10:M28 O10:O28 J30:J47" type="list">
+  <dataValidations count="8">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J20 L10:M14 O10:O14 L19:M19 O19 J23:J24 L23:M23 O23 J27:J28 L27:M27 O27 J31:J42 L31:M41 O31:O41 J43:J53" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q28" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q14 Q19 Q23 Q27 Q31:Q41" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L29:M44 O29:O47 M45 L46:M47" type="list">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L15:M18 O15:O18 L20:M20 O20 L24:M24 O24 L28:M28 O28 L42:M50 O42:O53 M51 L52:M53" type="list">
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q29:Q47" type="list">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q15:Q18 Q20 Q24 Q28 Q42:Q53" type="list">
+      <formula1>#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J92:J94 L92:M94 O92:O94" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q92:Q94" type="list">
+      <formula1>Sheet1!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J21 L21:M21 O21 J25 L25:M25 O25 J29:J30 L29:M30 O29:O30 J54:J91 L54:M91 O54:O91" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q21 Q25 Q29:Q30 Q54:Q91" type="list">
+      <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -15061,7 +16354,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -15080,10 +16373,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15091,125 +16384,125 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>164</v>
+        <v>255</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>166</v>
+        <v>255</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>169</v>
+        <v>255</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>172</v>
+        <v>255</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>175</v>
+        <v>255</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>178</v>
+        <v>255</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>181</v>
+        <v>255</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>184</v>
+        <v>255</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="38" t="n">
+        <v>255</v>
+      </c>
+      <c r="C10" s="50" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>186</v>
+      <c r="D10" s="50" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15217,111 +16510,111 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="38" t="n">
+        <v>278</v>
+      </c>
+      <c r="C11" s="50" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>188</v>
+      <c r="D11" s="50" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="38" t="n">
+        <v>278</v>
+      </c>
+      <c r="C12" s="50" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>189</v>
+      <c r="D12" s="50" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="38" t="n">
+        <v>278</v>
+      </c>
+      <c r="C13" s="50" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>190</v>
+      <c r="D13" s="51" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="38" t="n">
+        <v>278</v>
+      </c>
+      <c r="C14" s="50" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>191</v>
+      <c r="D14" s="50" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="38" t="n">
+        <v>278</v>
+      </c>
+      <c r="C15" s="50" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>192</v>
+      <c r="D15" s="51" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="38" t="n">
+        <v>278</v>
+      </c>
+      <c r="C16" s="50" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>193</v>
+      <c r="D16" s="51" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="38" t="n">
+        <v>278</v>
+      </c>
+      <c r="C17" s="50" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>194</v>
+      <c r="D17" s="51" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="38" t="n">
+        <v>278</v>
+      </c>
+      <c r="C18" s="50" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>195</v>
+      <c r="D18" s="51" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15329,111 +16622,111 @@
         <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="38" t="n">
+        <v>287</v>
+      </c>
+      <c r="C19" s="50" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>197</v>
+      <c r="D19" s="50" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="38" t="n">
+        <v>287</v>
+      </c>
+      <c r="C20" s="50" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>198</v>
+      <c r="D20" s="50" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="38" t="n">
+        <v>287</v>
+      </c>
+      <c r="C21" s="50" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>199</v>
+      <c r="D21" s="51" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="38" t="n">
+        <v>287</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>200</v>
+      <c r="D22" s="50" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="38" t="n">
+        <v>287</v>
+      </c>
+      <c r="C23" s="50" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>201</v>
+      <c r="D23" s="51" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="38" t="n">
+        <v>287</v>
+      </c>
+      <c r="C24" s="50" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>202</v>
+      <c r="D24" s="51" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="38" t="n">
+        <v>287</v>
+      </c>
+      <c r="C25" s="50" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>203</v>
+      <c r="D25" s="51" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="38" t="n">
+        <v>287</v>
+      </c>
+      <c r="C26" s="50" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>204</v>
+      <c r="D26" s="51" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15441,111 +16734,111 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C27" s="50" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>206</v>
+      <c r="D27" s="50" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C28" s="50" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>207</v>
+      <c r="D28" s="50" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C29" s="50" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>208</v>
+      <c r="D29" s="52" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C30" s="50" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>209</v>
+      <c r="D30" s="50" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C31" s="50" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>210</v>
+      <c r="D31" s="51" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C32" s="50" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>211</v>
+      <c r="D32" s="51" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C33" s="50" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>212</v>
+      <c r="D33" s="51" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C34" s="50" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>213</v>
+      <c r="D34" s="51" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15553,110 +16846,110 @@
         <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C35" s="38" t="n">
+        <v>305</v>
+      </c>
+      <c r="C35" s="50" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="38" t="n">
+      <c r="D35" s="50" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="38" t="n">
+        <v>305</v>
+      </c>
+      <c r="C36" s="50" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="38" t="n">
+      <c r="D36" s="50" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="38" t="n">
+        <v>305</v>
+      </c>
+      <c r="C37" s="50" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="51" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="38" t="n">
+        <v>305</v>
+      </c>
+      <c r="C38" s="50" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="38" t="n">
+      <c r="D38" s="50" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="38" t="n">
+        <v>305</v>
+      </c>
+      <c r="C39" s="50" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="51" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" s="38" t="n">
+        <v>305</v>
+      </c>
+      <c r="C40" s="50" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="51" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" s="38" t="n">
+        <v>305</v>
+      </c>
+      <c r="C41" s="50" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="51" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" s="38" t="n">
+        <v>305</v>
+      </c>
+      <c r="C42" s="50" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="51" t="n">
         <v>316</v>
       </c>
     </row>
@@ -15665,110 +16958,110 @@
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="38" t="n">
+        <v>306</v>
+      </c>
+      <c r="C43" s="50" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="n">
+      <c r="D43" s="50" t="n">
         <v>207</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="38" t="n">
+        <v>306</v>
+      </c>
+      <c r="C44" s="50" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="50" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="38" t="n">
+        <v>306</v>
+      </c>
+      <c r="C45" s="50" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="51" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="38" t="n">
+        <v>306</v>
+      </c>
+      <c r="C46" s="50" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="n">
+      <c r="D46" s="50" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="38" t="n">
+        <v>306</v>
+      </c>
+      <c r="C47" s="50" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="51" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="38" t="n">
+        <v>306</v>
+      </c>
+      <c r="C48" s="50" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="51" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" s="38" t="n">
+        <v>306</v>
+      </c>
+      <c r="C49" s="50" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="51" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="38" t="n">
+        <v>306</v>
+      </c>
+      <c r="C50" s="50" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="51" t="n">
         <v>319</v>
       </c>
     </row>
@@ -16741,7 +18034,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -16758,15 +18051,15 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>68</v>

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -15,11 +15,12 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$94</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$103</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="filtro" vbProcedure="false">TestCases!$A$9:$S$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">TestCases!$A$9:$T$47</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">TestCases!$A$9:$T$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$91</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">TestCases!$A$9:$T$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">TestCases!$A$9:$T$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">TestCases!$A$9:$T$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="353">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -393,6 +394,12 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.c43d0707a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il test case prevede che il motivo del ricovero sia indicato in maniera testuale ed in maniera codificata. CareMed permette l’indicazione solo in maniera testuale in questa versione.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT2</t>
   </si>
   <si>
@@ -401,10 +408,7 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">9caa8a8765ff9e31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f73a318b27b3c51ae65cd4e64c63987c98fafb2b3da99aadce0d8bf93e67acd4.7c39b772ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">Le sezioni opzionali non sono disaggregabili in questa verisone di CareMed dal testo della relazione di dimissione. Lo saranno in una versione successiva.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -415,12 +419,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">926f699cf177b7e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f471faf3b361ba35abeee3a466d29264f060800cf8e1a724d97df1f6cd176191.50980d158e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
   </si>
   <si>
@@ -430,6 +428,65 @@
   </si>
   <si>
     <t xml:space="preserve">L’implementazione della generazione della sezione “Inquadramento clinico iniziale” richiede una rifattorizzazione di alcune parti del software che é rimandata a una versione successiva di CareMed. Non è quindi possibile generare un CDA2 che soddisfi il test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile compilare la sezione DICOM Object Catalog in quanto le integrazioni di CareMed con il PACS prevedono il solo invio delle liste di lavoro. I PACS attualmente non restituiscono a CareMed le informazioni richieste per tali sezioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Manca almeno una sezione opzionale. la DICOM Object Catalog non compilabile  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">n quanto le integrazioni di CareMed con il PACS prevedono il solo invio delle liste di lavoro. I PACS attualmente non restituiscono a CareMed le informazioni richieste per tali sezioni</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -494,56 +551,7 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">RAD</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Precondizioni:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">RSA</t>
@@ -611,17 +619,348 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene restituito un errore di trasmissione "non tecnico" in backoffice al trasmittente che è invitato a ripetere l'operazione. Il log completo dell'errore viene memorizzato in area accessibile all'assistenza Innogea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile inserire stati di riservatezza arbitrari nei documenti XML.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I codici fiscali in CareMed vengono automaticamente convertiti in maiuscolo all'atto del salvataggio dei dati anagrafici.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In CareMed esiste un flag “Contiene informazioni sensibili”. Il referto di laboratorio generato con questo flag attiv potrà essere mandato in firma digitale e conterrà il tag di cui al test case nell’allegato XML, ma non verrà mai proposto per l’invio al fascicolo (non viene abilitata la funzione)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile firmare digitalmente un referto in CareMed in mancanza di questa informazione. Nessuna trasmissione è quindi possibile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La scelta del sesso in CareMed è vincolata ai valori indicati. Non è possibile inserire altri valori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile inserire valori arbitrari nel documento XML in CareMed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile firmare digitalmente una relazione di dimissione in CareMed in mancanza di questa informazione. Nessuna trasmissione è quindi possibile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’implementazione della generazione della sezione “Inquadramento clinico iniziale” richiede una rifattorizzazione di alcune parti del software che é rimandata a una versione successiva di CareMed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile generare in CareMed 
+una terapia farmacologica alla dimissione 
+Priva dell’informazione richiesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è prevista, al momento in CareMed, la codifica del motivo del ricovero, è possibile solo inserire testo libero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La terapia farmacologica alla dimissione, se presente, è compilata a partire dal prontuario farmaceutico interno a CareMed. Non essendo possibile inserire manualmente un farmaco nello stesso prontuario se non è disponibile il codice ATC (l’unico codice gestito al momento) non è possibile riprodurre il test case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il titolo del medico può essere scelto unicamente tra quelli codificabili.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene  effettuata traduzione del codice priorità in quelli ammessi prima di generare il referto XML. Se non è possibile effettuare la traduzione, non si può generare l’XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’inserimento della priorità della ricetta è obbligatorio in fase di accettazione della stessa. Non è possibile refertare se quest’informazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile refertare in CareMed se non viene inserita almeno una prestazione. Le prestazioni non possono essere inserite in CareMed senza codice. Non verrebbe generato alcun XML e conseguentemente nulla si potrebbe firmare digitalmente e trasmettere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Precondizioni:
-</t>
+      <t xml:space="preserve">Atteso che CareMed supporta il solo referto testuale, non è possibile fornire testi vuoti nel referto.</t>
     </r>
     <r>
       <rPr>
@@ -630,352 +969,8 @@
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
-</t>
+      <t xml:space="preserve">Non verrebbe generato alcun XML e conseguentemente nulla si potrebbe firmare digitalmente e trasmettere</t>
     </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_LAB_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene restituito un errore di trasmissione "non tecnico" in backoffice al trasmittente che è invitato a ripetere l'operazione. Il log completo dell'errore viene memorizzato in area accessibile all'assistenza Innogea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non è possibile inserire stati di riservatezza arbitrari nei documenti XML.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I codici fiscali in CareMed vengono automaticamente convertiti in maiuscolo all'atto del salvataggio dei dati anagrafici.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In CareMed esiste un flag “Contiene informazioni sensibili”. Il referto di laboratorio generato con questo flag attiv potrà essere mandato in firma digitale e conterrà il tag di cui al test case nell’allegato XML, ma non verrà mai proposto per l’invio al fascicolo (non viene abilitata la funzione)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT9_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non è possibile firmare digitalmente un referto in CareMed in mancanza di questa informazione. Nessuna trasmissione è quindi possibile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La scelta del sesso in CareMed è vincolata ai valori indicati. Non è possibile inserire altri valori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non è possibile inserire valori arbitrari nel documento XML in CareMed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT13_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT14_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT15_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT16_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT9_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non è possibile firmare digitalmente una relazione di dimissione in CareMed in mancanza di questa informazione. Nessuna trasmissione è quindi possibile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT13_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’implementazione della generazione della sezione “Inquadramento clinico iniziale” richiede una rifattorizzazione di alcune parti del software che é rimandata a una versione successiva di CareMed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT14_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non è possibile generare in CareMed 
-una terapia farmacologica alla dimissione 
-Priva dell’informazione richiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT15_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non è prevista, al momento in CareMed, la codifica del motivo del ricovero, è possibile solo inserire testo libero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT16_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La terapia farmacologica alla dimissione, se presente, è compilata a partire dal prontuario farmaceutico interno a CareMed. Non essendo possibile inserire manualmente un farmaco nello stesso prontuario se non è disponibile il codice ATC (l’unico codice gestito al momento) non è possibile riprodurre il test case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT9_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT13_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT14_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT15_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -986,6 +981,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’inserimento di precedenti esami eseguiti non è possibile in questa release di CareMed</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT17_KO</t>
   </si>
   <si>
@@ -994,6 +992,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">La sezione DICOM Object Catalog non viene compilata nei referti inviati al PACS da CareMed, in quanto le integrazioni con PACS prevedono il solo invio della worklist e CareMed non riceve in ritorno le informazioni richieste</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT18_KO</t>
   </si>
   <si>
@@ -1002,6 +1003,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’analisi patologica prossima e remota sono campi di testo libero e non hanno la data d’insorgenza problema. In una prossima versione di CareMed ogni rilevazione anamnestica prossima e remota verrà strutturata per avere anche la proprietà data</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT19_KO</t>
   </si>
   <si>
@@ -1009,11 +1013,17 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L’anamnesi familiare in CareMed è di testo libero. E’ prevista la funzionalità dell’albero genealogico a al momento la compilazione è facoltativa; se però viene utilizzata è necessario specificare il grado di parentela per tutte le voci al suo interno</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT20_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La specifica delle allergie in CareMed non ha la data d’inizio allergia e quindi questo comporterebbe il  soddisfacimento del test case, ma mancano anche altre informazioni per poter produrre un documento completo</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT21_KO</t>
@@ -1024,6 +1034,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">La specifica delle allergie in CareMed è di testo libero e non ha il fattore scatenante codificato, quindi questo comporterebbe il soddisfacimento del test case, ma mancano anche altre informazioni per poter produrre un documento completo</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT22_KO</t>
   </si>
   <si>
@@ -1032,6 +1045,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">La diagnosi codificata non è prevista in CareMed</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
@@ -1040,6 +1056,51 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Non è possibile specificare tipi di accesso diversi da quelli dello schematron di riferimento (dropdown list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile compilare la sezione “Confronto con precedenti esami eseguiti” in quanto non implementata in questa versione di CareMed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non è possibile generare un esempio in cui tutte le sezioni opzionali siano compilate. “Confronto con precedenti esami eseguiti” non è compilabile in quanto non implementata in questa versione di CareMed</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT5_KO</t>
   </si>
   <si>
@@ -1095,6 +1156,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">La scelta della modalità di accesso dell’operazione è vincolata ai valori accettati dallo schematron. Conseguentemente il campo non può essere riempito con valori diversi da quelli previsti.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT12_KO</t>
   </si>
   <si>
@@ -1117,6 +1181,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">La scelta dell’esame in CareMed avviene da una lista dropdown in cui l’informazione richiesta è sempre disponibile.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
   </si>
   <si>
@@ -1125,6 +1192,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Non è possibile firmare digitalmente  il referto e di conseguenza trasmetterlo se l’informazione non viene fornita</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
   </si>
   <si>
@@ -1141,6 +1211,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le integrazioni di CareMed con PACS non prevedono la restituzione di output da inserire nella sezione DICOM (vedi problema analogo con referti radiologici)</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
   </si>
   <si>
@@ -1189,6 +1262,12 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Il signatureCode viene generato 
+Automaticamente in maniera corretta  da CareMed, 
+non può essere inserito manualmente
+ In nessun modo</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT0</t>
   </si>
   <si>
@@ -1197,12 +1276,30 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">20230705155541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1fa3a67e334a2ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.624af25bb2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT0</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230705155549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46bb792e15a73eb8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.2cedf54f4d0568b8a329dcbb2f4fb1fd38e6a7c61eeb41711bdede809f207af7.75c6fae007^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT0</t>
@@ -1212,6 +1309,15 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230705155557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feb35e3c957a1d55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.fc6bd79a4682e0f86b397993660b3e680d877104c2562991115fbd0f1c60f1c4.e72b0e8651^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1392,7 +1498,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1479,15 +1585,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1500,6 +1597,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1634,7 +1732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1779,60 +1877,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1946,11 +2004,11 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -3020,11 +3078,11 @@
   </sheetPr>
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -4122,20 +4180,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
-      <selection pane="bottomRight" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.29"/>
@@ -4393,7 +4451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="n">
         <v>1</v>
       </c>
@@ -4437,7 +4495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="n">
         <v>2</v>
       </c>
@@ -4481,7 +4539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="n">
         <v>3</v>
       </c>
@@ -4525,7 +4583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="n">
         <v>4</v>
       </c>
@@ -4563,7 +4621,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="n">
         <v>5</v>
       </c>
@@ -4607,7 +4665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>6</v>
       </c>
@@ -4651,9 +4709,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>50</v>
@@ -4662,27 +4720,21 @@
         <v>74</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="K16" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>20230629124320</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="31"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
@@ -4695,9 +4747,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>50</v>
@@ -4706,27 +4758,21 @@
         <v>74</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>20230629124328</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="31"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
@@ -4739,9 +4785,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="102.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>50</v>
@@ -4750,20 +4796,20 @@
         <v>74</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+        <v>85</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="31" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -4777,31 +4823,31 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>92</v>
+      <c r="K19" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -4812,35 +4858,33 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="102.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="K20" s="31"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
@@ -4850,102 +4894,108 @@
       <c r="R20" s="32"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="n">
-        <v>31</v>
-      </c>
-      <c r="B21" s="39" t="s">
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="102.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C22" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38" t="n">
-        <v>32</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="102.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+        <v>97</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="28" t="s">
-        <v>92</v>
+      <c r="K23" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -4956,34 +5006,34 @@
       <c r="R23" s="32"/>
       <c r="S23" s="33"/>
       <c r="T23" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="39" t="s">
         <v>101</v>
       </c>
       <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -4994,250 +5044,262 @@
       <c r="R24" s="32"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="n">
-        <v>39</v>
-      </c>
-      <c r="B25" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="26" t="n">
+        <v>29</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="n">
-        <v>40</v>
-      </c>
-      <c r="B26" s="39" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="26" t="n">
+        <v>31</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="39" t="s">
+      <c r="C26" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="E27" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="K27" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
-      <c r="P27" s="28" t="s">
-        <v>109</v>
-      </c>
+      <c r="P27" s="31"/>
       <c r="Q27" s="31"/>
       <c r="R27" s="32"/>
       <c r="S27" s="33"/>
       <c r="T27" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="31"/>
-      <c r="P28" s="28" t="s">
-        <v>109</v>
-      </c>
+      <c r="P28" s="31"/>
       <c r="Q28" s="31"/>
       <c r="R28" s="32"/>
       <c r="S28" s="33"/>
       <c r="T28" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="n">
-        <v>47</v>
-      </c>
-      <c r="B29" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="26" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="26" t="n">
+        <v>39</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="S29" s="45"/>
-      <c r="T29" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="n">
-        <v>48</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="S30" s="45"/>
-      <c r="T30" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+        <v>112</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K31" s="31" t="s">
-        <v>116</v>
+      <c r="K31" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
@@ -5248,12 +5310,12 @@
       <c r="R31" s="32"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>50</v>
@@ -5262,150 +5324,154 @@
         <v>51</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>119</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K32" s="31"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
+      <c r="P32" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="Q32" s="31"/>
       <c r="R32" s="32"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>122</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K33" s="31"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
+      <c r="P33" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="Q33" s="31"/>
       <c r="R33" s="32"/>
       <c r="S33" s="33"/>
       <c r="T33" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+        <v>119</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K34" s="31"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
+      <c r="P34" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
+      <c r="R34" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="S34" s="33"/>
       <c r="T34" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
+        <v>119</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
       <c r="J35" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K35" s="31"/>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="P35" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="Q35" s="31"/>
-      <c r="R35" s="32"/>
+      <c r="R35" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="S35" s="33"/>
       <c r="T35" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>50</v>
@@ -5414,20 +5480,20 @@
         <v>51</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
       <c r="J36" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
@@ -5438,12 +5504,12 @@
       <c r="R36" s="32"/>
       <c r="S36" s="33"/>
       <c r="T36" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>50</v>
@@ -5452,20 +5518,20 @@
         <v>51</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
@@ -5476,12 +5542,12 @@
       <c r="R37" s="32"/>
       <c r="S37" s="33"/>
       <c r="T37" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>50</v>
@@ -5490,20 +5556,20 @@
         <v>51</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
@@ -5514,12 +5580,12 @@
       <c r="R38" s="32"/>
       <c r="S38" s="33"/>
       <c r="T38" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>50</v>
@@ -5528,20 +5594,20 @@
         <v>51</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
@@ -5552,12 +5618,12 @@
       <c r="R39" s="32"/>
       <c r="S39" s="33"/>
       <c r="T39" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>50</v>
@@ -5566,20 +5632,20 @@
         <v>51</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
@@ -5590,12 +5656,12 @@
       <c r="R40" s="32"/>
       <c r="S40" s="33"/>
       <c r="T40" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>50</v>
@@ -5604,20 +5670,20 @@
         <v>51</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
@@ -5628,34 +5694,34 @@
       <c r="R41" s="32"/>
       <c r="S41" s="33"/>
       <c r="T41" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
@@ -5666,34 +5732,34 @@
       <c r="R42" s="32"/>
       <c r="S42" s="33"/>
       <c r="T42" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -5704,34 +5770,34 @@
       <c r="R43" s="32"/>
       <c r="S43" s="33"/>
       <c r="T43" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
       <c r="J44" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -5742,34 +5808,34 @@
       <c r="R44" s="32"/>
       <c r="S44" s="33"/>
       <c r="T44" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
       <c r="J45" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -5780,34 +5846,34 @@
       <c r="R45" s="32"/>
       <c r="S45" s="33"/>
       <c r="T45" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
       <c r="J46" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
@@ -5818,12 +5884,12 @@
       <c r="R46" s="32"/>
       <c r="S46" s="33"/>
       <c r="T46" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>50</v>
@@ -5832,20 +5898,20 @@
         <v>74</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
       <c r="J47" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
@@ -5856,12 +5922,12 @@
       <c r="R47" s="32"/>
       <c r="S47" s="33"/>
       <c r="T47" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="26" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>50</v>
@@ -5870,20 +5936,20 @@
         <v>74</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
       <c r="J48" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K48" s="31" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
@@ -5894,12 +5960,12 @@
       <c r="R48" s="32"/>
       <c r="S48" s="33"/>
       <c r="T48" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>50</v>
@@ -5908,20 +5974,20 @@
         <v>74</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
       <c r="J49" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -5932,12 +5998,12 @@
       <c r="R49" s="32"/>
       <c r="S49" s="33"/>
       <c r="T49" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>50</v>
@@ -5946,20 +6012,20 @@
         <v>74</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
       <c r="J50" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K50" s="31" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
@@ -5970,12 +6036,12 @@
       <c r="R50" s="32"/>
       <c r="S50" s="33"/>
       <c r="T50" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>50</v>
@@ -5984,21 +6050,22 @@
         <v>74</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
       <c r="J51" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="K51" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L51" s="31"/>
       <c r="M51" s="31"/>
       <c r="N51" s="31"/>
       <c r="O51" s="31"/>
@@ -6007,12 +6074,12 @@
       <c r="R51" s="32"/>
       <c r="S51" s="33"/>
       <c r="T51" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>50</v>
@@ -6021,20 +6088,20 @@
         <v>74</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
       <c r="J52" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
@@ -6045,12 +6112,12 @@
       <c r="R52" s="32"/>
       <c r="S52" s="33"/>
       <c r="T52" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>50</v>
@@ -6059,20 +6126,20 @@
         <v>74</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
@@ -6083,1323 +6150,1476 @@
       <c r="R53" s="32"/>
       <c r="S53" s="33"/>
       <c r="T53" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="26" t="n">
+        <v>70</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="35"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="26" t="n">
+        <v>71</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="26" t="n">
+        <v>72</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26" t="n">
+        <v>73</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="26" t="n">
+        <v>74</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="26" t="n">
+        <v>75</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="26" t="n">
+        <v>76</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="26" t="n">
+        <v>77</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="26" t="n">
+        <v>78</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="26" t="n">
+        <v>79</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="36"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K63" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="26" t="n">
+        <v>80</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="36"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="26" t="n">
+        <v>81</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="26" t="n">
+        <v>82</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" s="36"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="26" t="n">
+        <v>83</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="26" t="n">
+        <v>84</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="36"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="26" t="n">
+        <v>85</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="36"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="26" t="n">
+        <v>86</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" s="36"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="26" t="n">
+        <v>87</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="26" t="n">
+        <v>88</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F72" s="36"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="26" t="n">
+        <v>89</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="26" t="n">
+        <v>90</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="26" t="n">
+        <v>91</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="26" t="n">
+        <v>92</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" s="36"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="26" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="38" t="n">
-        <v>75</v>
-      </c>
-      <c r="B54" s="39" t="s">
+      <c r="B77" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38" t="n">
-        <v>76</v>
-      </c>
-      <c r="B55" s="39" t="s">
+      <c r="C77" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" s="36"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="114.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="26" t="n">
+        <v>147</v>
+      </c>
+      <c r="B78" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38" t="n">
-        <v>77</v>
-      </c>
-      <c r="B56" s="39" t="s">
+      <c r="C78" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="26" t="n">
+        <v>148</v>
+      </c>
+      <c r="B79" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38" t="n">
-        <v>78</v>
-      </c>
-      <c r="B57" s="39" t="s">
+      <c r="C79" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="114.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="26" t="n">
+        <v>149</v>
+      </c>
+      <c r="B80" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="38" t="n">
-        <v>79</v>
-      </c>
-      <c r="B58" s="39" t="s">
+      <c r="C80" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="36"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K80" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="33"/>
+      <c r="T80" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="26" t="n">
+        <v>150</v>
+      </c>
+      <c r="B81" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38" t="n">
-        <v>80</v>
-      </c>
-      <c r="B59" s="39" t="s">
+      <c r="C81" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="36"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K81" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="26" t="n">
+        <v>151</v>
+      </c>
+      <c r="B82" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38" t="n">
-        <v>81</v>
-      </c>
-      <c r="B60" s="39" t="s">
+      <c r="C82" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F82" s="36"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="26" t="n">
+        <v>152</v>
+      </c>
+      <c r="B83" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38" t="n">
-        <v>82</v>
-      </c>
-      <c r="B61" s="39" t="s">
+      <c r="C83" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F83" s="36"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K83" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="26" t="n">
+        <v>153</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="38" t="n">
-        <v>83</v>
-      </c>
-      <c r="B62" s="39" t="s">
+      <c r="C84" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="36"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K84" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="26" t="n">
+        <v>154</v>
+      </c>
+      <c r="B85" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="38" t="n">
-        <v>84</v>
-      </c>
-      <c r="B63" s="39" t="s">
+      <c r="C85" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F85" s="36"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K85" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="26" t="n">
+        <v>155</v>
+      </c>
+      <c r="B86" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="38" t="n">
-        <v>85</v>
-      </c>
-      <c r="B64" s="39" t="s">
+      <c r="C86" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F86" s="36"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="26" t="n">
+        <v>156</v>
+      </c>
+      <c r="B87" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="38" t="n">
-        <v>86</v>
-      </c>
-      <c r="B65" s="39" t="s">
+      <c r="C87" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" s="36"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K87" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="33"/>
+      <c r="T87" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="26" t="n">
+        <v>157</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="38" t="n">
-        <v>87</v>
-      </c>
-      <c r="B66" s="39" t="s">
+      <c r="C88" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="F88" s="36"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K88" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="33"/>
+      <c r="T88" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="26" t="n">
+        <v>158</v>
+      </c>
+      <c r="B89" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="39" t="s">
+      <c r="C89" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="36"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K89" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="45"/>
-      <c r="T66" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="38" t="n">
-        <v>88</v>
-      </c>
-      <c r="B67" s="39" t="s">
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
+      <c r="R89" s="32"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="26" t="n">
+        <v>159</v>
+      </c>
+      <c r="B90" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" s="47" t="s">
+      <c r="C90" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F90" s="36"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K90" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="38" t="n">
-        <v>89</v>
-      </c>
-      <c r="B68" s="39" t="s">
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="31"/>
+      <c r="R90" s="32"/>
+      <c r="S90" s="33"/>
+      <c r="T90" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="26" t="n">
+        <v>160</v>
+      </c>
+      <c r="B91" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E68" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="45"/>
-      <c r="T68" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="38" t="n">
-        <v>90</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="38" t="n">
-        <v>91</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E70" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="44"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="38" t="n">
-        <v>92</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="E71" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="45"/>
-      <c r="T71" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="38" t="n">
-        <v>93</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="45"/>
-      <c r="T72" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="38" t="n">
-        <v>151</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E73" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="38" t="n">
-        <v>152</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="F74" s="41"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="45"/>
-      <c r="T74" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="38" t="n">
-        <v>153</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="E75" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="38" t="n">
-        <v>154</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="E76" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="F76" s="41"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="45"/>
-      <c r="T76" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="38" t="n">
-        <v>155</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="E77" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="F77" s="41"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="45"/>
-      <c r="T77" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="38" t="n">
-        <v>156</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="F78" s="41"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="44"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="38" t="n">
-        <v>157</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="F79" s="41"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="45"/>
-      <c r="T79" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="38" t="n">
-        <v>158</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="E80" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="F80" s="41"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="38" t="n">
-        <v>159</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E81" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="F81" s="41"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="44"/>
-      <c r="S81" s="45"/>
-      <c r="T81" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="38" t="n">
-        <v>160</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="E82" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="F82" s="41"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="44"/>
-      <c r="S82" s="45"/>
-      <c r="T82" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="38" t="n">
+      <c r="C91" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K91" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="32"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="26" t="n">
         <v>161</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="E83" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F83" s="41"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="43"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="45"/>
-      <c r="T83" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="38" t="n">
-        <v>162</v>
-      </c>
-      <c r="B84" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E84" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="F84" s="41"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
-      <c r="R84" s="44"/>
-      <c r="S84" s="45"/>
-      <c r="T84" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="38" t="n">
-        <v>163</v>
-      </c>
-      <c r="B85" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="E85" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="F85" s="41"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="43"/>
-      <c r="R85" s="44"/>
-      <c r="S85" s="45"/>
-      <c r="T85" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="38" t="n">
-        <v>164</v>
-      </c>
-      <c r="B86" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="E86" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="F86" s="41"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="44"/>
-      <c r="S86" s="45"/>
-      <c r="T86" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="38" t="n">
-        <v>165</v>
-      </c>
-      <c r="B87" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="E87" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="F87" s="41"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="45"/>
-      <c r="T87" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="38" t="n">
-        <v>166</v>
-      </c>
-      <c r="B88" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E88" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="F88" s="41"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="45"/>
-      <c r="T88" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="38" t="n">
-        <v>167</v>
-      </c>
-      <c r="B89" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C89" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="E89" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="F89" s="41"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="43"/>
-      <c r="R89" s="44"/>
-      <c r="S89" s="45"/>
-      <c r="T89" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="38" t="n">
-        <v>168</v>
-      </c>
-      <c r="B90" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E90" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="F90" s="41"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="43"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="45"/>
-      <c r="T90" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="38" t="n">
-        <v>169</v>
-      </c>
-      <c r="B91" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E91" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="F91" s="41"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="43"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="45"/>
-      <c r="T91" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="n">
-        <v>369</v>
       </c>
       <c r="B92" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="F92" s="48"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
+        <v>262</v>
+      </c>
+      <c r="F92" s="36"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K92" s="31" t="s">
+        <v>263</v>
+      </c>
       <c r="L92" s="31"/>
       <c r="M92" s="31"/>
       <c r="N92" s="31"/>
@@ -7409,31 +7629,35 @@
       <c r="R92" s="32"/>
       <c r="S92" s="33"/>
       <c r="T92" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26" t="n">
-        <v>370</v>
+        <v>162</v>
       </c>
       <c r="B93" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="F93" s="48"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
+        <v>265</v>
+      </c>
+      <c r="F93" s="36"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K93" s="31" t="s">
+        <v>263</v>
+      </c>
       <c r="L93" s="31"/>
       <c r="M93" s="31"/>
       <c r="N93" s="31"/>
@@ -7443,31 +7667,35 @@
       <c r="R93" s="32"/>
       <c r="S93" s="33"/>
       <c r="T93" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="n">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="B94" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="31"/>
+        <v>267</v>
+      </c>
+      <c r="F94" s="36"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="L94" s="31"/>
       <c r="M94" s="31"/>
       <c r="N94" s="31"/>
@@ -7477,161 +7705,368 @@
       <c r="R94" s="32"/>
       <c r="S94" s="33"/>
       <c r="T94" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="26" t="n">
+        <v>164</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F95" s="36"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K95" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="31"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="33"/>
+      <c r="T95" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="26" t="n">
+        <v>165</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" s="36"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K96" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="31"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="33"/>
+      <c r="T96" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="26" t="n">
+        <v>166</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F97" s="36"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L97" s="31"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="31"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="33"/>
+      <c r="T97" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="26" t="n">
+        <v>167</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F98" s="36"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K98" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L98" s="31"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="31"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="31"/>
+      <c r="R98" s="32"/>
+      <c r="S98" s="33"/>
+      <c r="T98" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="26" t="n">
+        <v>168</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" s="36"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K99" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L99" s="31"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="31"/>
+      <c r="R99" s="32"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="26" t="n">
+        <v>169</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" s="36"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L100" s="31"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="31"/>
+      <c r="R100" s="32"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="26" t="n">
+        <v>369</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F101" s="36" t="n">
+        <v>45112</v>
+      </c>
+      <c r="G101" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H101" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="I101" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J101" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="31"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="33"/>
+      <c r="T101" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="14"/>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="14"/>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="14"/>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="14"/>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="14"/>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="14"/>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="14"/>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="14"/>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="14"/>
+    <row r="102" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="26" t="n">
+        <v>370</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="F102" s="36" t="n">
+        <v>45112</v>
+      </c>
+      <c r="G102" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="I102" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J102" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="31"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="33"/>
+      <c r="T102" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="26" t="n">
+        <v>374</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F103" s="36" t="n">
+        <v>45112</v>
+      </c>
+      <c r="G103" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="H103" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="I103" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="J103" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="31"/>
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="31"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="33"/>
+      <c r="T103" s="34" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F104" s="11"/>
@@ -15692,55 +16127,13 @@
       <c r="T577" s="14"/>
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F578" s="11"/>
-      <c r="G578" s="11"/>
-      <c r="H578" s="11"/>
-      <c r="I578" s="11"/>
-      <c r="J578" s="12"/>
-      <c r="K578" s="12"/>
-      <c r="L578" s="12"/>
-      <c r="M578" s="12"/>
-      <c r="N578" s="12"/>
-      <c r="O578" s="12"/>
-      <c r="P578" s="12"/>
-      <c r="Q578" s="12"/>
-      <c r="R578" s="13"/>
-      <c r="S578" s="2"/>
-      <c r="T578" s="14"/>
+      <c r="T578" s="12"/>
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F579" s="11"/>
-      <c r="G579" s="11"/>
-      <c r="H579" s="11"/>
-      <c r="I579" s="11"/>
-      <c r="J579" s="12"/>
-      <c r="K579" s="12"/>
-      <c r="L579" s="12"/>
-      <c r="M579" s="12"/>
-      <c r="N579" s="12"/>
-      <c r="O579" s="12"/>
-      <c r="P579" s="12"/>
-      <c r="Q579" s="12"/>
-      <c r="R579" s="13"/>
-      <c r="S579" s="2"/>
-      <c r="T579" s="14"/>
+      <c r="T579" s="12"/>
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F580" s="11"/>
-      <c r="G580" s="11"/>
-      <c r="H580" s="11"/>
-      <c r="I580" s="11"/>
-      <c r="J580" s="12"/>
-      <c r="K580" s="12"/>
-      <c r="L580" s="12"/>
-      <c r="M580" s="12"/>
-      <c r="N580" s="12"/>
-      <c r="O580" s="12"/>
-      <c r="P580" s="12"/>
-      <c r="Q580" s="12"/>
-      <c r="R580" s="13"/>
-      <c r="S580" s="2"/>
-      <c r="T580" s="14"/>
+      <c r="T580" s="12"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T581" s="12"/>
@@ -15928,15 +16321,9 @@
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T642" s="12"/>
     </row>
-    <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T643" s="12"/>
-    </row>
-    <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T644" s="12"/>
-    </row>
-    <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T645" s="12"/>
-    </row>
+    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16285,7 +16672,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T94"/>
+  <autoFilter ref="A9:T103">
+    <filterColumn colId="19">
+      <customFilters and="true">
+        <customFilter operator="equal" val="KO"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -16295,36 +16688,44 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J20 L10:M14 O10:O14 L19:M19 O19 J23:J24 L23:M23 O23 J27:J28 L27:M27 O27 J31:J42 L31:M41 O31:O41 J43:J53" type="list">
+  <dataValidations count="10">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J15 L10:M14 O10:O14 J17:J47 L24:M24 O24 L28:M28 O28 L32:M32 O32 L36:M46 O36:O46 J48:J70 J78:J81" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q14 Q19 Q23 Q27 Q31:Q41" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q14 Q24 Q28 Q32 Q36:Q46" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L15:M18 O15:O18 L20:M20 O20 L24:M24 O24 L28:M28 O28 L42:M50 O42:O53 M51 L52:M53" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L15:M15 O15 L17:M19 O17:O19 L25:M25 O25 L29:M29 O29 L33:M35 O33:O35 L47:M55 O47:O58 M56 L57:M58" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q15:Q18 Q20 Q24 Q28 Q42:Q53" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q15 Q17:Q19 Q25 Q29 Q33 Q47:Q58" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J92:J94 L92:M94 O92:O94" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J101:J103 L101:M103 O101:O103" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q92:Q94" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q101:Q103" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J21 L21:M21 O21 J25 L25:M25 O25 J29:J30 L29:M30 O29:O30 J54:J91 L54:M91 O54:O91" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L26:M26 O26 L30:M30 O30 L59:M77 O59:O77 J71:J77 J82:J100 L82:M100 O82:O100" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q21 Q25 Q29:Q30 Q54:Q91" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q26 Q30 Q34:Q35 Q59:Q77 Q82:Q100" type="list">
+      <formula1>Sheet1!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J16 L16:M16 O16 L20:M23 O20:O23 L78:M81 O78:O81" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q16 Q20:Q23 Q78:Q81" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16348,13 +16749,13 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -16373,10 +16774,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16384,13 +16785,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>257</v>
+        <v>299</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16398,111 +16799,111 @@
         <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>259</v>
+        <v>299</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>261</v>
+        <v>299</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>264</v>
+        <v>299</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>267</v>
+        <v>299</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>270</v>
+        <v>299</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>272</v>
+        <v>299</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>275</v>
+        <v>299</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="50" t="n">
+        <v>299</v>
+      </c>
+      <c r="C10" s="40" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>277</v>
+      <c r="D10" s="40" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16510,13 +16911,13 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="50" t="n">
+        <v>322</v>
+      </c>
+      <c r="C11" s="40" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>279</v>
+      <c r="D11" s="40" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16524,97 +16925,97 @@
         <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="50" t="n">
+        <v>322</v>
+      </c>
+      <c r="C12" s="40" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>280</v>
+      <c r="D12" s="40" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="50" t="n">
+        <v>322</v>
+      </c>
+      <c r="C13" s="40" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>281</v>
+      <c r="D13" s="41" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="50" t="n">
+        <v>322</v>
+      </c>
+      <c r="C14" s="40" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>282</v>
+      <c r="D14" s="40" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" s="50" t="n">
+        <v>322</v>
+      </c>
+      <c r="C15" s="40" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>283</v>
+      <c r="D15" s="41" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="50" t="n">
+        <v>322</v>
+      </c>
+      <c r="C16" s="40" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>284</v>
+      <c r="D16" s="41" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="50" t="n">
+        <v>322</v>
+      </c>
+      <c r="C17" s="40" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>285</v>
+      <c r="D17" s="41" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="50" t="n">
+        <v>322</v>
+      </c>
+      <c r="C18" s="40" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="51" t="s">
-        <v>286</v>
+      <c r="D18" s="41" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16622,13 +17023,13 @@
         <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="50" t="n">
+        <v>331</v>
+      </c>
+      <c r="C19" s="40" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>288</v>
+      <c r="D19" s="40" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16636,97 +17037,97 @@
         <v>74</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="50" t="n">
+        <v>331</v>
+      </c>
+      <c r="C20" s="40" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>289</v>
+      <c r="D20" s="40" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="50" t="n">
+        <v>331</v>
+      </c>
+      <c r="C21" s="40" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>290</v>
+      <c r="D21" s="41" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="50" t="n">
+        <v>331</v>
+      </c>
+      <c r="C22" s="40" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>291</v>
+      <c r="D22" s="40" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23" s="50" t="n">
+        <v>331</v>
+      </c>
+      <c r="C23" s="40" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="51" t="s">
-        <v>292</v>
+      <c r="D23" s="41" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" s="50" t="n">
+        <v>331</v>
+      </c>
+      <c r="C24" s="40" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="51" t="s">
-        <v>293</v>
+      <c r="D24" s="41" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="50" t="n">
+        <v>331</v>
+      </c>
+      <c r="C25" s="40" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>294</v>
+      <c r="D25" s="41" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="50" t="n">
+        <v>331</v>
+      </c>
+      <c r="C26" s="40" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="51" t="s">
-        <v>295</v>
+      <c r="D26" s="41" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16734,13 +17135,13 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" s="50" t="n">
+        <v>340</v>
+      </c>
+      <c r="C27" s="40" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>297</v>
+      <c r="D27" s="40" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16748,97 +17149,97 @@
         <v>74</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="50" t="n">
+        <v>340</v>
+      </c>
+      <c r="C28" s="40" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="50" t="s">
-        <v>298</v>
+      <c r="D28" s="40" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" s="50" t="n">
+        <v>340</v>
+      </c>
+      <c r="C29" s="40" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="52" t="s">
-        <v>299</v>
+      <c r="D29" s="42" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" s="50" t="n">
+        <v>340</v>
+      </c>
+      <c r="C30" s="40" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="50" t="s">
-        <v>300</v>
+      <c r="D30" s="40" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" s="50" t="n">
+        <v>340</v>
+      </c>
+      <c r="C31" s="40" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="51" t="s">
-        <v>301</v>
+      <c r="D31" s="41" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="50" t="n">
+        <v>340</v>
+      </c>
+      <c r="C32" s="40" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="51" t="s">
-        <v>302</v>
+      <c r="D32" s="41" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C33" s="50" t="n">
+        <v>340</v>
+      </c>
+      <c r="C33" s="40" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="51" t="s">
-        <v>303</v>
+      <c r="D33" s="41" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C34" s="50" t="n">
+        <v>340</v>
+      </c>
+      <c r="C34" s="40" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="51" t="s">
-        <v>304</v>
+      <c r="D34" s="41" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16846,12 +17247,12 @@
         <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C35" s="50" t="n">
+        <v>349</v>
+      </c>
+      <c r="C35" s="40" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="50" t="n">
+      <c r="D35" s="40" t="n">
         <v>204</v>
       </c>
     </row>
@@ -16860,96 +17261,96 @@
         <v>74</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" s="50" t="n">
+        <v>349</v>
+      </c>
+      <c r="C36" s="40" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="50" t="n">
+      <c r="D36" s="40" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C37" s="50" t="n">
+        <v>349</v>
+      </c>
+      <c r="C37" s="40" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="51" t="n">
+      <c r="D37" s="41" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" s="50" t="n">
+        <v>349</v>
+      </c>
+      <c r="C38" s="40" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="50" t="n">
+      <c r="D38" s="40" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C39" s="50" t="n">
+        <v>349</v>
+      </c>
+      <c r="C39" s="40" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="51" t="n">
+      <c r="D39" s="41" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C40" s="50" t="n">
+        <v>349</v>
+      </c>
+      <c r="C40" s="40" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="51" t="n">
+      <c r="D40" s="41" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="50" t="n">
+        <v>349</v>
+      </c>
+      <c r="C41" s="40" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="51" t="n">
+      <c r="D41" s="41" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C42" s="50" t="n">
+        <v>349</v>
+      </c>
+      <c r="C42" s="40" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="51" t="n">
+      <c r="D42" s="41" t="n">
         <v>316</v>
       </c>
     </row>
@@ -16958,12 +17359,12 @@
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C43" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C43" s="40" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="50" t="n">
+      <c r="D43" s="40" t="n">
         <v>207</v>
       </c>
     </row>
@@ -16972,96 +17373,96 @@
         <v>74</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C44" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C44" s="40" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="50" t="n">
+      <c r="D44" s="40" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C45" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C45" s="40" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="51" t="n">
+      <c r="D45" s="41" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C46" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C46" s="40" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="50" t="n">
+      <c r="D46" s="40" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C47" s="40" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="51" t="n">
+      <c r="D47" s="41" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C48" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C48" s="40" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="51" t="n">
+      <c r="D48" s="41" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C49" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C49" s="40" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="51" t="n">
+      <c r="D49" s="41" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C50" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C50" s="40" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="51" t="n">
+      <c r="D50" s="41" t="n">
         <v>319</v>
       </c>
     </row>
@@ -18030,11 +18431,11 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -18051,15 +18452,15 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>68</v>

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -17,10 +17,10 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$103</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="filtro" vbProcedure="false">TestCases!$A$9:$S$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$91</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">TestCases!$A$9:$T$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">TestCases!$A$9:$T$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">TestCases!$A$9:$T$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">TestCases!$A$9:$T$91</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">TestCases!$A$9:$T$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">TestCases!$A$9:$T$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">TestCases!$A$9:$T$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="348">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -305,10 +305,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">0535d587a27668f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f1ff8e5c279ec768d068feb01bd6d4e352d25d1d1d5f03e47ae0138c3badd1de.06dee78e38^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">d2c5c40c5fe7e153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f1ff8e5c279ec768d068feb01bd6d4e352d25d1d1d5f03e47ae0138c3badd1de.d8f84c7388^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Si</t>
@@ -326,10 +326,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">f401a8495f6dd30d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f31e4d3440c9bb44227da6452ab6de8b1892c651004bccfd16699dc537104fec.3d41fcb13c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">305572b6dccad556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.f31e4d3440c9bb44227da6452ab6de8b1892c651004bccfd16699dc537104fec.cf685442a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT3</t>
@@ -341,10 +341,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">f710617e9e496229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.bf51219d0accb9cecbc015fa5a08cbe0ada778de7ef77c03461a1ff88fed66d9.7e93cf690a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">385d8e6a3de07707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.bf51219d0accb9cecbc015fa5a08cbe0ada778de7ef77c03461a1ff88fed66d9.3677a14475^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT4</t>
@@ -371,10 +371,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">e4f779f375dc961b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4db90688830c81f787815ac9542bc388c85ceabbe49177c258d079847e29bbaf.f42ae0e461^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">f2ca33aa329f763e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4db90688830c81f787815ac9542bc388c85ceabbe49177c258d079847e29bbaf.1d9bf9a437^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">LDO</t>
@@ -388,12 +388,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">205c54f9b25d20dc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.c43d0707a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
@@ -468,25 +462,7 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Manca almeno una sezione opzionale. la DICOM Object Catalog non compilabile  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">n quanto le integrazioni di CareMed con il PACS prevedono il solo invio delle liste di lavoro. I PACS attualmente non restituiscono a CareMed le informazioni richieste per tali sezioni</t>
-    </r>
+    <t xml:space="preserve">Manca almeno una sezione opzionale. la DICOM Object Catalog non compilabile  n quanto le integrazioni di CareMed con il PACS prevedono il solo invio delle liste di lavoro. I PACS attualmente non restituiscono a CareMed le informazioni richieste per tali sezioni</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -952,25 +928,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Atteso che CareMed supporta il solo referto testuale, non è possibile fornire testi vuoti nel referto.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Non verrebbe generato alcun XML e conseguentemente nulla si potrebbe firmare digitalmente e trasmettere</t>
-    </r>
+    <t xml:space="preserve">Atteso che CareMed supporta il solo referto testuale, non è possibile fornire testi vuoti nel referto.Non verrebbe generato alcun XML e conseguentemente nulla si potrebbe firmare digitalmente e trasmettere</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -1276,13 +1234,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">20230705155541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f1fa3a67e334a2ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.624af25bb2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2488f59447adc040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.4b32b5f866bacae189fef7a96e213924d38c71202d8c8f121c47c7d8a307a1c3.bbf8015a4f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT0</t>
@@ -1293,13 +1248,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">20230705155549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46bb792e15a73eb8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.2cedf54f4d0568b8a329dcbb2f4fb1fd38e6a7c61eeb41711bdede809f207af7.75c6fae007^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">17f2c06e579bc1c9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.2cedf54f4d0568b8a329dcbb2f4fb1fd38e6a7c61eeb41711bdede809f207af7.cb0b1cc2a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT0</t>
@@ -1311,13 +1263,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">20230705155557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feb35e3c957a1d55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.fc6bd79a4682e0f86b397993660b3e680d877104c2562991115fbd0f1c60f1c4.e72b0e8651^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">8971a3f783a4c964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.5.4.fc6bd79a4682e0f86b397993660b3e680d877104c2562991115fbd0f1c60f1c4.773308c2a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1498,7 +1447,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1583,12 +1532,6 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1853,10 +1796,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1877,6 +1816,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -1889,7 +1832,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2008,7 +1951,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -3082,7 +3025,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -4180,7 +4123,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T1048576"/>
@@ -4190,10 +4133,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.29"/>
@@ -4451,7 +4394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="n">
         <v>1</v>
       </c>
@@ -4468,34 +4411,34 @@
         <v>53</v>
       </c>
       <c r="F10" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G10" s="30" t="n">
-        <v>20230629112421</v>
-      </c>
-      <c r="H10" s="30" t="s">
+        <v>45117</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>20230710162546</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34" t="s">
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="n">
         <v>2</v>
       </c>
@@ -4512,34 +4455,34 @@
         <v>59</v>
       </c>
       <c r="F11" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>20230629112430</v>
-      </c>
-      <c r="H11" s="30" t="s">
+        <v>45117</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>20230710162557</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34" t="s">
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="n">
         <v>3</v>
       </c>
@@ -4556,34 +4499,34 @@
         <v>63</v>
       </c>
       <c r="F12" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>20230629112438</v>
-      </c>
-      <c r="H12" s="2" t="s">
+        <v>45117</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>20230710162606</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34" t="s">
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="n">
         <v>4</v>
       </c>
@@ -4599,29 +4542,29 @@
       <c r="E13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="n">
         <v>5</v>
       </c>
@@ -4638,34 +4581,34 @@
         <v>71</v>
       </c>
       <c r="F14" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>20230629112455</v>
-      </c>
-      <c r="H14" s="2" t="s">
+        <v>45117</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>20230710162614</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34" t="s">
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>6</v>
       </c>
@@ -4681,35 +4624,29 @@
       <c r="E15" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="29" t="n">
-        <v>45106</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>20230629124311</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34" t="s">
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>6</v>
       </c>
@@ -4729,25 +4666,25 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
-      <c r="J16" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34" t="s">
+      <c r="J16" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>7</v>
       </c>
@@ -4758,34 +4695,34 @@
         <v>74</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34" t="s">
+      <c r="J17" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="102.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
         <v>8</v>
       </c>
@@ -4796,34 +4733,34 @@
         <v>74</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34" t="s">
+      <c r="J18" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
         <v>9</v>
       </c>
@@ -4834,34 +4771,34 @@
         <v>74</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="35"/>
+        <v>85</v>
+      </c>
+      <c r="F19" s="34"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34" t="s">
+      <c r="K19" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="102.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
         <v>11</v>
       </c>
@@ -4869,35 +4806,35 @@
         <v>50</v>
       </c>
       <c r="C20" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>91</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34" t="s">
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
         <v>12</v>
       </c>
@@ -4905,35 +4842,35 @@
         <v>50</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34" t="s">
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="102.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="n">
         <v>13</v>
       </c>
@@ -4941,37 +4878,37 @@
         <v>50</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34" t="s">
+      <c r="K22" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="102.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
         <v>14</v>
       </c>
@@ -4979,33 +4916,33 @@
         <v>50</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34" t="s">
+      <c r="K23" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5020,31 +4957,31 @@
         <v>51</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="F24" s="34"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,31 +4995,31 @@
         <v>74</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="F25" s="34"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,34 +5030,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,34 +5068,34 @@
         <v>50</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,31 +5109,31 @@
         <v>51</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="35"/>
+        <v>107</v>
+      </c>
+      <c r="F28" s="34"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5210,31 +5147,31 @@
         <v>74</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="35"/>
+        <v>107</v>
+      </c>
+      <c r="F29" s="34"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,34 +5182,34 @@
         <v>50</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,34 +5220,34 @@
         <v>50</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,31 +5261,31 @@
         <v>51</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="35"/>
+        <v>112</v>
+      </c>
+      <c r="F32" s="34"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
+      <c r="J32" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
       <c r="P32" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,31 +5299,31 @@
         <v>74</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="35"/>
+        <v>112</v>
+      </c>
+      <c r="F33" s="34"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="J33" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
       <c r="P33" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,36 +5334,36 @@
         <v>50</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
-      <c r="J34" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
+      <c r="J34" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
       <c r="P34" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="S34" s="33"/>
-      <c r="T34" s="34" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,36 +5374,36 @@
         <v>50</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
-      <c r="J35" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
+      <c r="J35" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
       <c r="P35" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,31 +5417,31 @@
         <v>51</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="F36" s="34"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34" t="s">
-        <v>103</v>
+      <c r="K36" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,31 +5455,31 @@
         <v>51</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="F37" s="34"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K37" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34" t="s">
-        <v>103</v>
+      <c r="K37" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,31 +5493,31 @@
         <v>51</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="F38" s="34"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="34" t="s">
-        <v>103</v>
+      <c r="K38" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5594,31 +5531,31 @@
         <v>51</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="35"/>
+        <v>129</v>
+      </c>
+      <c r="F39" s="34"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K39" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34" t="s">
-        <v>103</v>
+      <c r="K39" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,31 +5569,31 @@
         <v>51</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="F40" s="34"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K40" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="34" t="s">
-        <v>103</v>
+      <c r="K40" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,31 +5607,31 @@
         <v>51</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="35"/>
+        <v>134</v>
+      </c>
+      <c r="F41" s="34"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
-      <c r="J41" s="31" t="s">
+      <c r="J41" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="34" t="s">
-        <v>103</v>
+      <c r="K41" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,31 +5645,31 @@
         <v>51</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="35"/>
+        <v>137</v>
+      </c>
+      <c r="F42" s="34"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
-      <c r="J42" s="31" t="s">
+      <c r="J42" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="34" t="s">
-        <v>103</v>
+      <c r="K42" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,31 +5683,31 @@
         <v>51</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="F43" s="34"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="34" t="s">
-        <v>103</v>
+      <c r="K43" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,31 +5721,31 @@
         <v>51</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="35"/>
+        <v>142</v>
+      </c>
+      <c r="F44" s="34"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
-      <c r="J44" s="31" t="s">
+      <c r="J44" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K44" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="34" t="s">
-        <v>103</v>
+      <c r="K44" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,31 +5759,31 @@
         <v>51</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="F45" s="34"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K45" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="34" t="s">
-        <v>103</v>
+      <c r="K45" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,31 +5797,31 @@
         <v>51</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="F46" s="34"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K46" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="34" t="s">
-        <v>103</v>
+      <c r="K46" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5898,31 +5835,31 @@
         <v>74</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="35"/>
+        <v>148</v>
+      </c>
+      <c r="F47" s="34"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K47" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="34" t="s">
-        <v>103</v>
+      <c r="K47" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,31 +5873,31 @@
         <v>74</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="35"/>
+        <v>150</v>
+      </c>
+      <c r="F48" s="34"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K48" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="34" t="s">
-        <v>103</v>
+      <c r="K48" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,31 +5911,31 @@
         <v>74</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="F49" s="34"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
-      <c r="J49" s="31" t="s">
+      <c r="J49" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K49" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="34" t="s">
-        <v>103</v>
+      <c r="K49" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6012,31 +5949,31 @@
         <v>74</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="35"/>
+        <v>154</v>
+      </c>
+      <c r="F50" s="34"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K50" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="34" t="s">
-        <v>103</v>
+      <c r="K50" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6050,31 +5987,31 @@
         <v>74</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="F51" s="34"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K51" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="34" t="s">
-        <v>103</v>
+      <c r="K51" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,31 +6025,31 @@
         <v>74</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="35"/>
+        <v>159</v>
+      </c>
+      <c r="F52" s="34"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="34" t="s">
-        <v>103</v>
+      <c r="K52" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6126,31 +6063,31 @@
         <v>74</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="F53" s="34"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
-      <c r="J53" s="31" t="s">
+      <c r="J53" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K53" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="34" t="s">
-        <v>103</v>
+      <c r="K53" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,31 +6101,31 @@
         <v>74</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="35"/>
+        <v>163</v>
+      </c>
+      <c r="F54" s="34"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
-      <c r="J54" s="31" t="s">
+      <c r="J54" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K54" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="34" t="s">
-        <v>103</v>
+      <c r="K54" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,31 +6139,31 @@
         <v>74</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F55" s="35"/>
+        <v>165</v>
+      </c>
+      <c r="F55" s="34"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K55" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="34" t="s">
-        <v>103</v>
+      <c r="K55" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6240,30 +6177,30 @@
         <v>74</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="35"/>
+        <v>168</v>
+      </c>
+      <c r="F56" s="34"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
-      <c r="J56" s="31" t="s">
+      <c r="J56" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="34" t="s">
-        <v>103</v>
+        <v>169</v>
+      </c>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,31 +6214,31 @@
         <v>74</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F57" s="35"/>
+        <v>171</v>
+      </c>
+      <c r="F57" s="34"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
-      <c r="J57" s="31" t="s">
+      <c r="J57" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K57" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34" t="s">
-        <v>103</v>
+      <c r="K57" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,31 +6252,31 @@
         <v>74</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="35"/>
+        <v>174</v>
+      </c>
+      <c r="F58" s="34"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
-      <c r="J58" s="31" t="s">
+      <c r="J58" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K58" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="34" t="s">
-        <v>103</v>
+      <c r="K58" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6350,34 +6287,34 @@
         <v>50</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
-      <c r="J59" s="31" t="s">
+      <c r="J59" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K59" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="34" t="s">
-        <v>103</v>
+      <c r="K59" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6388,34 +6325,34 @@
         <v>50</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
-      <c r="J60" s="31" t="s">
+      <c r="J60" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K60" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="34" t="s">
-        <v>103</v>
+      <c r="K60" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6426,34 +6363,34 @@
         <v>50</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
-      <c r="J61" s="31" t="s">
+      <c r="J61" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K61" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34" t="s">
-        <v>103</v>
+      <c r="K61" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6464,34 +6401,34 @@
         <v>50</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F62" s="36"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
-      <c r="J62" s="31" t="s">
+      <c r="J62" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K62" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="34" t="s">
-        <v>103</v>
+      <c r="K62" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,34 +6439,34 @@
         <v>50</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
-      <c r="J63" s="31" t="s">
+      <c r="J63" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="34" t="s">
-        <v>103</v>
+      <c r="K63" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6540,34 +6477,34 @@
         <v>50</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
-      <c r="J64" s="31" t="s">
+      <c r="J64" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K64" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="34" t="s">
-        <v>103</v>
+      <c r="K64" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6578,34 +6515,34 @@
         <v>50</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
-      <c r="J65" s="31" t="s">
+      <c r="J65" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K65" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34" t="s">
-        <v>103</v>
+      <c r="K65" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6616,34 +6553,34 @@
         <v>50</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="37"/>
-      <c r="J66" s="31" t="s">
+      <c r="J66" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K66" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="34" t="s">
-        <v>103</v>
+      <c r="K66" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,34 +6591,34 @@
         <v>50</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F67" s="36"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
-      <c r="J67" s="31" t="s">
+      <c r="J67" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K67" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="34" t="s">
-        <v>103</v>
+      <c r="K67" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,34 +6629,34 @@
         <v>50</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
-      <c r="J68" s="31" t="s">
+      <c r="J68" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K68" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="34" t="s">
-        <v>103</v>
+      <c r="K68" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,34 +6667,34 @@
         <v>50</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F69" s="36"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
-      <c r="J69" s="31" t="s">
+      <c r="J69" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K69" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="34" t="s">
-        <v>103</v>
+      <c r="K69" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6768,34 +6705,34 @@
         <v>50</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F70" s="36"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
-      <c r="J70" s="31" t="s">
+      <c r="J70" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K70" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="33"/>
-      <c r="T70" s="34" t="s">
-        <v>103</v>
+      <c r="K70" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,34 +6743,34 @@
         <v>50</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F71" s="36"/>
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
-      <c r="J71" s="31" t="s">
+      <c r="J71" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K71" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="34" t="s">
-        <v>103</v>
+      <c r="K71" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,34 +6781,34 @@
         <v>50</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F72" s="36"/>
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
-      <c r="J72" s="31" t="s">
+      <c r="J72" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K72" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="33"/>
-      <c r="T72" s="34" t="s">
-        <v>103</v>
+      <c r="K72" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6882,34 +6819,34 @@
         <v>50</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
-      <c r="J73" s="31" t="s">
+      <c r="J73" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K73" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="33"/>
-      <c r="T73" s="34" t="s">
-        <v>103</v>
+      <c r="K73" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6920,34 +6857,34 @@
         <v>50</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K74" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31"/>
-      <c r="Q74" s="31"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="33"/>
-      <c r="T74" s="34" t="s">
-        <v>103</v>
+      <c r="K74" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,34 +6895,34 @@
         <v>50</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="37"/>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
-      <c r="J75" s="31" t="s">
+      <c r="J75" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K75" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="31"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="33"/>
-      <c r="T75" s="34" t="s">
-        <v>103</v>
+      <c r="K75" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6996,34 +6933,34 @@
         <v>50</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F76" s="36"/>
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
-      <c r="J76" s="31" t="s">
+      <c r="J76" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K76" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="33"/>
-      <c r="T76" s="34" t="s">
-        <v>103</v>
+      <c r="K76" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,37 +6971,37 @@
         <v>50</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F77" s="36"/>
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
-      <c r="J77" s="31" t="s">
+      <c r="J77" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K77" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="32"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="114.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K77" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="n">
         <v>147</v>
       </c>
@@ -7072,35 +7009,35 @@
         <v>50</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
-      <c r="J78" s="31" t="s">
+      <c r="J78" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="33"/>
-      <c r="T78" s="34" t="s">
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="26" t="n">
         <v>148</v>
       </c>
@@ -7108,37 +7045,37 @@
         <v>50</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F79" s="36"/>
       <c r="G79" s="37"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
-      <c r="J79" s="31" t="s">
+      <c r="J79" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K79" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="34" t="s">
+      <c r="K79" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="114.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="n">
         <v>149</v>
       </c>
@@ -7146,37 +7083,37 @@
         <v>50</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
-      <c r="J80" s="31" t="s">
+      <c r="J80" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K80" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="31"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="33"/>
-      <c r="T80" s="34" t="s">
+      <c r="K80" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="n">
         <v>150</v>
       </c>
@@ -7184,33 +7121,33 @@
         <v>50</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F81" s="36"/>
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
-      <c r="J81" s="31" t="s">
+      <c r="J81" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="34" t="s">
+      <c r="K81" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="33" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7222,34 +7159,34 @@
         <v>50</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
-      <c r="J82" s="31" t="s">
+      <c r="J82" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K82" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="34" t="s">
-        <v>103</v>
+      <c r="K82" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7260,34 +7197,34 @@
         <v>50</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F83" s="36"/>
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
-      <c r="J83" s="31" t="s">
+      <c r="J83" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K83" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="34" t="s">
-        <v>103</v>
+      <c r="K83" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7298,34 +7235,34 @@
         <v>50</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F84" s="36"/>
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
-      <c r="J84" s="31" t="s">
+      <c r="J84" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K84" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="34" t="s">
-        <v>103</v>
+      <c r="K84" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7336,34 +7273,34 @@
         <v>50</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F85" s="36"/>
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
-      <c r="J85" s="31" t="s">
+      <c r="J85" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K85" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="32"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="34" t="s">
-        <v>103</v>
+      <c r="K85" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7374,34 +7311,34 @@
         <v>50</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F86" s="36"/>
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
-      <c r="J86" s="31" t="s">
+      <c r="J86" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K86" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
-      <c r="Q86" s="31"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="34" t="s">
-        <v>103</v>
+      <c r="K86" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,34 +7349,34 @@
         <v>50</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F87" s="36"/>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
-      <c r="J87" s="31" t="s">
+      <c r="J87" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K87" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="L87" s="31"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-      <c r="P87" s="31"/>
-      <c r="Q87" s="31"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="34" t="s">
-        <v>103</v>
+      <c r="K87" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="L87" s="30"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="30"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,34 +7387,34 @@
         <v>50</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F88" s="36"/>
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
-      <c r="J88" s="31" t="s">
+      <c r="J88" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K88" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="31"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="33"/>
-      <c r="T88" s="34" t="s">
-        <v>103</v>
+      <c r="K88" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="31"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,34 +7425,34 @@
         <v>50</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F89" s="36"/>
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
-      <c r="J89" s="31" t="s">
+      <c r="J89" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K89" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31"/>
-      <c r="Q89" s="31"/>
-      <c r="R89" s="32"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="34" t="s">
-        <v>103</v>
+      <c r="K89" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="32"/>
+      <c r="T89" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7526,34 +7463,34 @@
         <v>50</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F90" s="36"/>
       <c r="G90" s="37"/>
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
-      <c r="J90" s="31" t="s">
+      <c r="J90" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K90" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="31"/>
-      <c r="P90" s="31"/>
-      <c r="Q90" s="31"/>
-      <c r="R90" s="32"/>
-      <c r="S90" s="33"/>
-      <c r="T90" s="34" t="s">
-        <v>103</v>
+      <c r="K90" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7564,34 +7501,34 @@
         <v>50</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F91" s="36"/>
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
-      <c r="J91" s="31" t="s">
+      <c r="J91" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K91" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="31"/>
-      <c r="R91" s="32"/>
-      <c r="S91" s="33"/>
-      <c r="T91" s="34" t="s">
-        <v>103</v>
+      <c r="K91" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7602,34 +7539,34 @@
         <v>50</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F92" s="36"/>
       <c r="G92" s="37"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
-      <c r="J92" s="31" t="s">
+      <c r="J92" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K92" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
-      <c r="R92" s="32"/>
-      <c r="S92" s="33"/>
-      <c r="T92" s="34" t="s">
-        <v>103</v>
+      <c r="K92" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7640,34 +7577,34 @@
         <v>50</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F93" s="36"/>
       <c r="G93" s="37"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
-      <c r="J93" s="31" t="s">
+      <c r="J93" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K93" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="L93" s="31"/>
-      <c r="M93" s="31"/>
-      <c r="N93" s="31"/>
-      <c r="O93" s="31"/>
-      <c r="P93" s="31"/>
-      <c r="Q93" s="31"/>
-      <c r="R93" s="32"/>
-      <c r="S93" s="33"/>
-      <c r="T93" s="34" t="s">
-        <v>103</v>
+      <c r="K93" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="31"/>
+      <c r="S93" s="32"/>
+      <c r="T93" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7678,34 +7615,34 @@
         <v>50</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F94" s="36"/>
       <c r="G94" s="37"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
-      <c r="J94" s="31" t="s">
+      <c r="J94" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K94" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="31"/>
-      <c r="O94" s="31"/>
-      <c r="P94" s="31"/>
-      <c r="Q94" s="31"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="33"/>
-      <c r="T94" s="34" t="s">
-        <v>103</v>
+      <c r="K94" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L94" s="30"/>
+      <c r="M94" s="30"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="30"/>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="30"/>
+      <c r="R94" s="31"/>
+      <c r="S94" s="32"/>
+      <c r="T94" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7716,34 +7653,34 @@
         <v>50</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F95" s="36"/>
       <c r="G95" s="37"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
-      <c r="J95" s="31" t="s">
+      <c r="J95" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="L95" s="31"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="31"/>
-      <c r="O95" s="31"/>
-      <c r="P95" s="31"/>
-      <c r="Q95" s="31"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="33"/>
-      <c r="T95" s="34" t="s">
-        <v>103</v>
+      <c r="K95" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="L95" s="30"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="30"/>
+      <c r="R95" s="31"/>
+      <c r="S95" s="32"/>
+      <c r="T95" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,34 +7691,34 @@
         <v>50</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F96" s="36"/>
       <c r="G96" s="37"/>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
-      <c r="J96" s="31" t="s">
+      <c r="J96" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K96" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="31"/>
-      <c r="R96" s="32"/>
-      <c r="S96" s="33"/>
-      <c r="T96" s="34" t="s">
-        <v>103</v>
+      <c r="K96" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="30"/>
+      <c r="Q96" s="30"/>
+      <c r="R96" s="31"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7792,34 +7729,34 @@
         <v>50</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="37"/>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
-      <c r="J97" s="31" t="s">
+      <c r="J97" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="L97" s="31"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="31"/>
-      <c r="R97" s="32"/>
-      <c r="S97" s="33"/>
-      <c r="T97" s="34" t="s">
-        <v>103</v>
+      <c r="K97" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L97" s="30"/>
+      <c r="M97" s="30"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="30"/>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="30"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7830,34 +7767,34 @@
         <v>50</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F98" s="36"/>
       <c r="G98" s="37"/>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
-      <c r="J98" s="31" t="s">
+      <c r="J98" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K98" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="L98" s="31"/>
-      <c r="M98" s="31"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="31"/>
-      <c r="Q98" s="31"/>
-      <c r="R98" s="32"/>
-      <c r="S98" s="33"/>
-      <c r="T98" s="34" t="s">
-        <v>103</v>
+      <c r="K98" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L98" s="30"/>
+      <c r="M98" s="30"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="30"/>
+      <c r="P98" s="30"/>
+      <c r="Q98" s="30"/>
+      <c r="R98" s="31"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,34 +7805,34 @@
         <v>50</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F99" s="36"/>
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
-      <c r="J99" s="31" t="s">
+      <c r="J99" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K99" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="L99" s="31"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="31"/>
-      <c r="Q99" s="31"/>
-      <c r="R99" s="32"/>
-      <c r="S99" s="33"/>
-      <c r="T99" s="34" t="s">
-        <v>103</v>
+      <c r="K99" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L99" s="30"/>
+      <c r="M99" s="30"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="30"/>
+      <c r="P99" s="30"/>
+      <c r="Q99" s="30"/>
+      <c r="R99" s="31"/>
+      <c r="S99" s="32"/>
+      <c r="T99" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,37 +7843,37 @@
         <v>50</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F100" s="36"/>
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
-      <c r="J100" s="31" t="s">
+      <c r="J100" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="31"/>
-      <c r="R100" s="32"/>
-      <c r="S100" s="33"/>
-      <c r="T100" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="31"/>
+      <c r="S100" s="32"/>
+      <c r="T100" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="n">
         <v>369</v>
       </c>
@@ -7947,40 +7884,40 @@
         <v>74</v>
       </c>
       <c r="D101" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="F101" s="29" t="n">
+        <v>45117</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>20230710162623</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E101" s="28" t="s">
+      <c r="I101" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="F101" s="36" t="n">
-        <v>45112</v>
-      </c>
-      <c r="G101" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="H101" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="I101" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="J101" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="31"/>
-      <c r="Q101" s="31"/>
-      <c r="R101" s="32"/>
-      <c r="S101" s="33"/>
-      <c r="T101" s="34" t="s">
+      <c r="J101" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="31"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="n">
         <v>370</v>
       </c>
@@ -7988,43 +7925,43 @@
         <v>50</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D102" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="F102" s="29" t="n">
+        <v>45117</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>20230710162631</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="I102" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="E102" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="F102" s="36" t="n">
-        <v>45112</v>
-      </c>
-      <c r="G102" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="H102" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="I102" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="J102" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
-      <c r="P102" s="31"/>
-      <c r="Q102" s="31"/>
-      <c r="R102" s="32"/>
-      <c r="S102" s="33"/>
-      <c r="T102" s="34" t="s">
+      <c r="J102" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="30"/>
+      <c r="N102" s="30"/>
+      <c r="O102" s="30"/>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="30"/>
+      <c r="R102" s="31"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="26" t="n">
         <v>374</v>
       </c>
@@ -8032,39 +7969,39 @@
         <v>50</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="F103" s="36" t="n">
-        <v>45112</v>
-      </c>
-      <c r="G103" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="H103" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="I103" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="J103" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="31"/>
-      <c r="R103" s="32"/>
-      <c r="S103" s="33"/>
-      <c r="T103" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" s="29" t="n">
+        <v>45117</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>20230710162640</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="J103" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="30"/>
+      <c r="R103" s="31"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="33" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16672,13 +16609,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T103">
-    <filterColumn colId="19">
-      <customFilters and="true">
-        <customFilter operator="equal" val="KO"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T103"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -16689,7 +16620,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J15 L10:M14 O10:O14 J17:J47 L24:M24 O24 L28:M28 O28 L32:M32 O32 L36:M46 O36:O46 J48:J70 J78:J81" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J14 L10:M14 O10:O14 J17:J47 L24:M24 O24 L28:M28 O28 L32:M32 O32 L36:M46 O36:O46 J48:J70 J78:J81" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16721,7 +16652,7 @@
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J16 L16:M16 O16 L20:M23 O20:O23 L78:M81 O78:O81" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J15:J16 L16:M16 O16 L20:M23 O20:O23 L78:M81 O78:O81" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16755,7 +16686,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -16774,10 +16705,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16785,13 +16716,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16799,111 +16730,111 @@
         <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>304</v>
-      </c>
       <c r="D4" s="41" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C10" s="40" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16911,13 +16842,13 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C11" s="40" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16925,97 +16856,97 @@
         <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C12" s="40" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C13" s="40" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C14" s="40" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C15" s="40" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C16" s="40" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C17" s="40" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>322</v>
       </c>
       <c r="C18" s="40" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17023,13 +16954,13 @@
         <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C19" s="40" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17037,97 +16968,97 @@
         <v>74</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C20" s="40" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C21" s="40" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C22" s="40" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C23" s="40" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C24" s="40" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C25" s="40" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C26" s="40" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17135,13 +17066,13 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C27" s="40" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17149,97 +17080,97 @@
         <v>74</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C28" s="40" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C29" s="40" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C30" s="40" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C31" s="40" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C32" s="40" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C33" s="40" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C34" s="40" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17247,7 +17178,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C35" s="40" t="n">
         <v>195</v>
@@ -17261,7 +17192,7 @@
         <v>74</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C36" s="40" t="n">
         <v>211</v>
@@ -17272,10 +17203,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C37" s="40" t="n">
         <v>227</v>
@@ -17286,10 +17217,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C38" s="40" t="n">
         <v>243</v>
@@ -17300,10 +17231,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C39" s="40" t="n">
         <v>259</v>
@@ -17314,10 +17245,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C40" s="40" t="n">
         <v>275</v>
@@ -17328,10 +17259,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C41" s="40" t="n">
         <v>291</v>
@@ -17342,10 +17273,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C42" s="40" t="n">
         <v>307</v>
@@ -17359,7 +17290,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C43" s="40" t="n">
         <v>196</v>
@@ -17373,7 +17304,7 @@
         <v>74</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C44" s="40" t="n">
         <v>212</v>
@@ -17384,10 +17315,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C45" s="40" t="n">
         <v>228</v>
@@ -17398,10 +17329,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C46" s="40" t="n">
         <v>244</v>
@@ -17412,10 +17343,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C47" s="40" t="n">
         <v>260</v>
@@ -17426,10 +17357,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C48" s="40" t="n">
         <v>276</v>
@@ -17440,10 +17371,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C49" s="40" t="n">
         <v>292</v>
@@ -17454,10 +17385,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C50" s="40" t="n">
         <v>308</v>
@@ -18435,7 +18366,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -18452,15 +18383,15 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>68</v>

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$103</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$99</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="filtro" vbProcedure="false">TestCases!$A$9:$S$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">TestCases!$A$9:$T$91</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">TestCases!$A$9:$T$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">TestCases!$A$9:$T$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">TestCases!$A$9:$T$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">TestCases!$A$9:$T$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">TestCases!$A$9:$T$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">TestCases!$A$9:$T$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">TestCases!$A$9:$T$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="342">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -425,22 +425,6 @@
   </si>
   <si>
     <t xml:space="preserve">RAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT3</t>
@@ -1015,15 +999,6 @@
   </si>
   <si>
     <t xml:space="preserve">Non è possibile specificare tipi di accesso diversi da quelli dello schematron di riferimento (dropdown list)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT2</t>
@@ -1820,15 +1795,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1951,7 +1926,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -3025,7 +3000,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -4129,14 +4104,14 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.29"/>
@@ -4526,7 +4501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="n">
         <v>4</v>
       </c>
@@ -4646,9 +4621,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>50</v>
@@ -4657,20 +4632,20 @@
         <v>74</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+        <v>80</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="30" t="s">
         <v>77</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
@@ -4684,9 +4659,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>50</v>
@@ -4695,10 +4670,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="2"/>
@@ -4724,7 +4699,7 @@
     </row>
     <row r="18" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>50</v>
@@ -4733,20 +4708,20 @@
         <v>74</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="30" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -4760,23 +4735,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="F19" s="37"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -4784,7 +4759,7 @@
         <v>68</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -4800,7 +4775,7 @@
     </row>
     <row r="20" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>50</v>
@@ -4809,19 +4784,21 @@
         <v>87</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+        <v>92</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="30"/>
+      <c r="K20" s="30" t="s">
+        <v>93</v>
+      </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
@@ -4834,30 +4811,32 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="30"/>
+      <c r="K21" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
@@ -4867,34 +4846,34 @@
       <c r="R21" s="31"/>
       <c r="S21" s="32"/>
       <c r="T21" s="33" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+        <v>98</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="30" t="s">
-        <v>94</v>
+      <c r="K22" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
@@ -4905,12 +4884,12 @@
       <c r="R22" s="31"/>
       <c r="S22" s="32"/>
       <c r="T22" s="33" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>50</v>
@@ -4919,20 +4898,20 @@
         <v>87</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="30" t="s">
-        <v>97</v>
+      <c r="K23" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -4943,26 +4922,26 @@
       <c r="R23" s="31"/>
       <c r="S23" s="32"/>
       <c r="T23" s="33" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="F24" s="37"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
@@ -4970,7 +4949,7 @@
         <v>68</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
@@ -4981,34 +4960,34 @@
       <c r="R24" s="31"/>
       <c r="S24" s="32"/>
       <c r="T24" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F25" s="34"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -5019,34 +4998,34 @@
       <c r="R25" s="31"/>
       <c r="S25" s="32"/>
       <c r="T25" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
@@ -5057,34 +5036,34 @@
       <c r="R26" s="31"/>
       <c r="S26" s="32"/>
       <c r="T26" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+        <v>103</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -5095,26 +5074,26 @@
       <c r="R27" s="31"/>
       <c r="S27" s="32"/>
       <c r="T27" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>106</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="34"/>
+        <v>103</v>
+      </c>
+      <c r="F28" s="37"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
@@ -5122,7 +5101,7 @@
         <v>68</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
@@ -5133,145 +5112,147 @@
       <c r="R28" s="31"/>
       <c r="S28" s="32"/>
       <c r="T28" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D29" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>107</v>
-      </c>
       <c r="F29" s="34"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>100</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
+      <c r="P29" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="Q29" s="30"/>
       <c r="R29" s="31"/>
       <c r="S29" s="32"/>
       <c r="T29" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D30" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
+      <c r="P30" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="Q30" s="30"/>
       <c r="R30" s="31"/>
       <c r="S30" s="32"/>
       <c r="T30" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+        <v>112</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>100</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K31" s="30"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
+      <c r="P31" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="Q31" s="30"/>
-      <c r="R31" s="31"/>
+      <c r="R31" s="31" t="s">
+        <v>109</v>
+      </c>
       <c r="S31" s="32"/>
       <c r="T31" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="34"/>
+        <v>113</v>
+      </c>
+      <c r="F32" s="37"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -5279,136 +5260,134 @@
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
       <c r="P32" s="28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q32" s="30"/>
-      <c r="R32" s="31"/>
+      <c r="R32" s="31" t="s">
+        <v>109</v>
+      </c>
       <c r="S32" s="32"/>
       <c r="T32" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>115</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F33" s="34"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>117</v>
+      </c>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
       <c r="O33" s="30"/>
-      <c r="P33" s="28" t="s">
-        <v>114</v>
-      </c>
+      <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
       <c r="R33" s="31"/>
       <c r="S33" s="32"/>
       <c r="T33" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+        <v>119</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="K34" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="28" t="s">
-        <v>114</v>
-      </c>
+      <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="31" t="s">
-        <v>113</v>
-      </c>
+      <c r="R34" s="31"/>
       <c r="S34" s="32"/>
       <c r="T34" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+        <v>122</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="K35" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
-      <c r="P35" s="28" t="s">
-        <v>114</v>
-      </c>
+      <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
-      <c r="R35" s="31" t="s">
-        <v>113</v>
-      </c>
+      <c r="R35" s="31"/>
       <c r="S35" s="32"/>
       <c r="T35" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>50</v>
@@ -5417,20 +5396,20 @@
         <v>51</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F36" s="34"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
@@ -5441,12 +5420,12 @@
       <c r="R36" s="31"/>
       <c r="S36" s="32"/>
       <c r="T36" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>50</v>
@@ -5455,20 +5434,20 @@
         <v>51</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F37" s="34"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -5479,12 +5458,12 @@
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
       <c r="T37" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>50</v>
@@ -5493,20 +5472,20 @@
         <v>51</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F38" s="34"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
@@ -5517,12 +5496,12 @@
       <c r="R38" s="31"/>
       <c r="S38" s="32"/>
       <c r="T38" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>50</v>
@@ -5531,20 +5510,20 @@
         <v>51</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F39" s="34"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K39" s="30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -5555,12 +5534,12 @@
       <c r="R39" s="31"/>
       <c r="S39" s="32"/>
       <c r="T39" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>50</v>
@@ -5569,20 +5548,20 @@
         <v>51</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F40" s="34"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K40" s="30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L40" s="30"/>
       <c r="M40" s="30"/>
@@ -5593,12 +5572,12 @@
       <c r="R40" s="31"/>
       <c r="S40" s="32"/>
       <c r="T40" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>50</v>
@@ -5607,20 +5586,20 @@
         <v>51</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F41" s="34"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L41" s="30"/>
       <c r="M41" s="30"/>
@@ -5631,12 +5610,12 @@
       <c r="R41" s="31"/>
       <c r="S41" s="32"/>
       <c r="T41" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>50</v>
@@ -5645,20 +5624,20 @@
         <v>51</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F42" s="34"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
@@ -5669,12 +5648,12 @@
       <c r="R42" s="31"/>
       <c r="S42" s="32"/>
       <c r="T42" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>50</v>
@@ -5683,20 +5662,20 @@
         <v>51</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F43" s="34"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L43" s="30"/>
       <c r="M43" s="30"/>
@@ -5707,34 +5686,34 @@
       <c r="R43" s="31"/>
       <c r="S43" s="32"/>
       <c r="T43" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F44" s="34"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
@@ -5745,34 +5724,34 @@
       <c r="R44" s="31"/>
       <c r="S44" s="32"/>
       <c r="T44" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F45" s="34"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
       <c r="J45" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
@@ -5783,34 +5762,34 @@
       <c r="R45" s="31"/>
       <c r="S45" s="32"/>
       <c r="T45" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F46" s="34"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
@@ -5821,12 +5800,12 @@
       <c r="R46" s="31"/>
       <c r="S46" s="32"/>
       <c r="T46" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>50</v>
@@ -5835,20 +5814,20 @@
         <v>74</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F47" s="34"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
@@ -5859,12 +5838,12 @@
       <c r="R47" s="31"/>
       <c r="S47" s="32"/>
       <c r="T47" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="26" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>50</v>
@@ -5873,20 +5852,20 @@
         <v>74</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F48" s="34"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
@@ -5897,12 +5876,12 @@
       <c r="R48" s="31"/>
       <c r="S48" s="32"/>
       <c r="T48" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>50</v>
@@ -5911,20 +5890,20 @@
         <v>74</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F49" s="34"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K49" s="30" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
@@ -5935,12 +5914,12 @@
       <c r="R49" s="31"/>
       <c r="S49" s="32"/>
       <c r="T49" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>50</v>
@@ -5949,20 +5928,20 @@
         <v>74</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F50" s="34"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K50" s="30" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
@@ -5973,12 +5952,12 @@
       <c r="R50" s="31"/>
       <c r="S50" s="32"/>
       <c r="T50" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>50</v>
@@ -5987,20 +5966,20 @@
         <v>74</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F51" s="34"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
       <c r="J51" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K51" s="30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L51" s="30"/>
       <c r="M51" s="30"/>
@@ -6011,12 +5990,12 @@
       <c r="R51" s="31"/>
       <c r="S51" s="32"/>
       <c r="T51" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>50</v>
@@ -6025,20 +6004,20 @@
         <v>74</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F52" s="34"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K52" s="30" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
@@ -6049,12 +6028,12 @@
       <c r="R52" s="31"/>
       <c r="S52" s="32"/>
       <c r="T52" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>50</v>
@@ -6063,22 +6042,21 @@
         <v>74</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F53" s="34"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
       <c r="J53" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K53" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="L53" s="30"/>
+      <c r="K53" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
@@ -6087,12 +6065,12 @@
       <c r="R53" s="31"/>
       <c r="S53" s="32"/>
       <c r="T53" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>50</v>
@@ -6101,20 +6079,20 @@
         <v>74</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F54" s="34"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K54" s="30" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
@@ -6125,12 +6103,12 @@
       <c r="R54" s="31"/>
       <c r="S54" s="32"/>
       <c r="T54" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>50</v>
@@ -6139,20 +6117,20 @@
         <v>74</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F55" s="34"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
       <c r="J55" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K55" s="30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L55" s="30"/>
       <c r="M55" s="30"/>
@@ -6163,35 +6141,36 @@
       <c r="R55" s="31"/>
       <c r="S55" s="32"/>
       <c r="T55" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="34"/>
+        <v>173</v>
+      </c>
+      <c r="F56" s="37"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
       <c r="J56" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="K56" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="L56" s="30"/>
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
       <c r="O56" s="30"/>
@@ -6200,26 +6179,26 @@
       <c r="R56" s="31"/>
       <c r="S56" s="32"/>
       <c r="T56" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F57" s="34"/>
+        <v>175</v>
+      </c>
+      <c r="F57" s="37"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
@@ -6227,7 +6206,7 @@
         <v>68</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="L57" s="30"/>
       <c r="M57" s="30"/>
@@ -6238,26 +6217,26 @@
       <c r="R57" s="31"/>
       <c r="S57" s="32"/>
       <c r="T57" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="34"/>
+        <v>177</v>
+      </c>
+      <c r="F58" s="37"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
@@ -6265,7 +6244,7 @@
         <v>68</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -6276,12 +6255,12 @@
       <c r="R58" s="31"/>
       <c r="S58" s="32"/>
       <c r="T58" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="26" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B59" s="27" t="s">
         <v>50</v>
@@ -6290,20 +6269,20 @@
         <v>87</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
+        <v>179</v>
+      </c>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
       <c r="J59" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K59" s="30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L59" s="30"/>
       <c r="M59" s="30"/>
@@ -6314,12 +6293,12 @@
       <c r="R59" s="31"/>
       <c r="S59" s="32"/>
       <c r="T59" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>50</v>
@@ -6328,20 +6307,20 @@
         <v>87</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
+        <v>181</v>
+      </c>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
       <c r="J60" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
@@ -6352,12 +6331,12 @@
       <c r="R60" s="31"/>
       <c r="S60" s="32"/>
       <c r="T60" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="26" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B61" s="27" t="s">
         <v>50</v>
@@ -6366,20 +6345,20 @@
         <v>87</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
+        <v>183</v>
+      </c>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
       <c r="J61" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K61" s="30" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
@@ -6390,12 +6369,12 @@
       <c r="R61" s="31"/>
       <c r="S61" s="32"/>
       <c r="T61" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B62" s="27" t="s">
         <v>50</v>
@@ -6404,20 +6383,20 @@
         <v>87</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
+        <v>185</v>
+      </c>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
       <c r="J62" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
@@ -6428,12 +6407,12 @@
       <c r="R62" s="31"/>
       <c r="S62" s="32"/>
       <c r="T62" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="26" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>50</v>
@@ -6442,20 +6421,20 @@
         <v>87</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F63" s="36"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
+        <v>188</v>
+      </c>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
       <c r="J63" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K63" s="30" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
@@ -6466,12 +6445,12 @@
       <c r="R63" s="31"/>
       <c r="S63" s="32"/>
       <c r="T63" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>50</v>
@@ -6480,20 +6459,20 @@
         <v>87</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="36"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
+        <v>191</v>
+      </c>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
       <c r="J64" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
@@ -6504,12 +6483,12 @@
       <c r="R64" s="31"/>
       <c r="S64" s="32"/>
       <c r="T64" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="26" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B65" s="27" t="s">
         <v>50</v>
@@ -6518,20 +6497,20 @@
         <v>87</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
+        <v>194</v>
+      </c>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
       <c r="J65" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K65" s="30" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
@@ -6542,12 +6521,12 @@
       <c r="R65" s="31"/>
       <c r="S65" s="32"/>
       <c r="T65" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B66" s="27" t="s">
         <v>50</v>
@@ -6556,20 +6535,20 @@
         <v>87</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
+        <v>197</v>
+      </c>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
       <c r="J66" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K66" s="30" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
@@ -6580,12 +6559,12 @@
       <c r="R66" s="31"/>
       <c r="S66" s="32"/>
       <c r="T66" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B67" s="27" t="s">
         <v>50</v>
@@ -6594,20 +6573,20 @@
         <v>87</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
+        <v>200</v>
+      </c>
+      <c r="F67" s="37"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
       <c r="J67" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K67" s="30" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
@@ -6618,12 +6597,12 @@
       <c r="R67" s="31"/>
       <c r="S67" s="32"/>
       <c r="T67" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B68" s="27" t="s">
         <v>50</v>
@@ -6632,20 +6611,20 @@
         <v>87</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F68" s="36"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
+        <v>203</v>
+      </c>
+      <c r="F68" s="37"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
       <c r="J68" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K68" s="30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
@@ -6656,12 +6635,12 @@
       <c r="R68" s="31"/>
       <c r="S68" s="32"/>
       <c r="T68" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B69" s="27" t="s">
         <v>50</v>
@@ -6670,20 +6649,20 @@
         <v>87</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="36"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
+        <v>206</v>
+      </c>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
       <c r="J69" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
@@ -6694,12 +6673,12 @@
       <c r="R69" s="31"/>
       <c r="S69" s="32"/>
       <c r="T69" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B70" s="27" t="s">
         <v>50</v>
@@ -6708,20 +6687,20 @@
         <v>87</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="36"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
+        <v>209</v>
+      </c>
+      <c r="F70" s="37"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
       <c r="J70" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
@@ -6732,12 +6711,12 @@
       <c r="R70" s="31"/>
       <c r="S70" s="32"/>
       <c r="T70" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B71" s="27" t="s">
         <v>50</v>
@@ -6746,20 +6725,20 @@
         <v>87</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="36"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
+        <v>212</v>
+      </c>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
       <c r="J71" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K71" s="30" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
@@ -6770,12 +6749,12 @@
       <c r="R71" s="31"/>
       <c r="S71" s="32"/>
       <c r="T71" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>50</v>
@@ -6784,20 +6763,20 @@
         <v>87</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="36"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
+        <v>215</v>
+      </c>
+      <c r="F72" s="37"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
       <c r="J72" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K72" s="30" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L72" s="30"/>
       <c r="M72" s="30"/>
@@ -6808,12 +6787,12 @@
       <c r="R72" s="31"/>
       <c r="S72" s="32"/>
       <c r="T72" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>50</v>
@@ -6822,20 +6801,20 @@
         <v>87</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
+        <v>218</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
       <c r="J73" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K73" s="30" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
@@ -6846,12 +6825,12 @@
       <c r="R73" s="31"/>
       <c r="S73" s="32"/>
       <c r="T73" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B74" s="27" t="s">
         <v>50</v>
@@ -6860,20 +6839,20 @@
         <v>87</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
+        <v>221</v>
+      </c>
+      <c r="F74" s="37"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
       <c r="J74" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K74" s="30" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L74" s="30"/>
       <c r="M74" s="30"/>
@@ -6884,34 +6863,34 @@
       <c r="R74" s="31"/>
       <c r="S74" s="32"/>
       <c r="T74" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="26" t="n">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
+        <v>224</v>
+      </c>
+      <c r="F75" s="37"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
       <c r="J75" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K75" s="30" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
@@ -6922,34 +6901,34 @@
       <c r="R75" s="31"/>
       <c r="S75" s="32"/>
       <c r="T75" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="26" t="n">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="B76" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
+        <v>227</v>
+      </c>
+      <c r="F76" s="37"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
       <c r="J76" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K76" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
@@ -6960,34 +6939,34 @@
       <c r="R76" s="31"/>
       <c r="S76" s="32"/>
       <c r="T76" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="26" t="n">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B77" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="F77" s="36"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
+        <v>229</v>
+      </c>
+      <c r="F77" s="37"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
       <c r="J77" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K77" s="30" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L77" s="30"/>
       <c r="M77" s="30"/>
@@ -6998,33 +6977,35 @@
       <c r="R77" s="31"/>
       <c r="S77" s="32"/>
       <c r="T77" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B78" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F78" s="36"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
+        <v>232</v>
+      </c>
+      <c r="F78" s="37"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
       <c r="J78" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K78" s="30"/>
+      <c r="K78" s="30" t="s">
+        <v>117</v>
+      </c>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
@@ -7034,34 +7015,34 @@
       <c r="R78" s="31"/>
       <c r="S78" s="32"/>
       <c r="T78" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="26" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B79" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" s="36"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
+        <v>234</v>
+      </c>
+      <c r="F79" s="37"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
       <c r="J79" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K79" s="30" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="L79" s="30"/>
       <c r="M79" s="30"/>
@@ -7072,34 +7053,34 @@
       <c r="R79" s="31"/>
       <c r="S79" s="32"/>
       <c r="T79" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B80" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="F80" s="36"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
+        <v>236</v>
+      </c>
+      <c r="F80" s="37"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
       <c r="J80" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K80" s="30" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
@@ -7110,34 +7091,34 @@
       <c r="R80" s="31"/>
       <c r="S80" s="32"/>
       <c r="T80" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B81" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F81" s="36"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
+        <v>238</v>
+      </c>
+      <c r="F81" s="37"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
       <c r="J81" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K81" s="30" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="L81" s="30"/>
       <c r="M81" s="30"/>
@@ -7148,34 +7129,34 @@
       <c r="R81" s="31"/>
       <c r="S81" s="32"/>
       <c r="T81" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="26" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B82" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
+        <v>240</v>
+      </c>
+      <c r="F82" s="37"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
       <c r="J82" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K82" s="30" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="L82" s="30"/>
       <c r="M82" s="30"/>
@@ -7186,34 +7167,34 @@
       <c r="R82" s="31"/>
       <c r="S82" s="32"/>
       <c r="T82" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="26" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B83" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="F83" s="36"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
+        <v>242</v>
+      </c>
+      <c r="F83" s="37"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
       <c r="J83" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K83" s="30" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L83" s="30"/>
       <c r="M83" s="30"/>
@@ -7224,34 +7205,34 @@
       <c r="R83" s="31"/>
       <c r="S83" s="32"/>
       <c r="T83" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="26" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B84" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F84" s="36"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
+        <v>244</v>
+      </c>
+      <c r="F84" s="37"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
       <c r="J84" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K84" s="30" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="L84" s="30"/>
       <c r="M84" s="30"/>
@@ -7262,34 +7243,34 @@
       <c r="R84" s="31"/>
       <c r="S84" s="32"/>
       <c r="T84" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="26" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B85" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="F85" s="36"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
+        <v>247</v>
+      </c>
+      <c r="F85" s="37"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
       <c r="J85" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K85" s="30" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="L85" s="30"/>
       <c r="M85" s="30"/>
@@ -7300,34 +7281,34 @@
       <c r="R85" s="31"/>
       <c r="S85" s="32"/>
       <c r="T85" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="26" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F86" s="36"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
+        <v>249</v>
+      </c>
+      <c r="F86" s="37"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
       <c r="J86" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K86" s="30" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="L86" s="30"/>
       <c r="M86" s="30"/>
@@ -7338,34 +7319,34 @@
       <c r="R86" s="31"/>
       <c r="S86" s="32"/>
       <c r="T86" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="26" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="F87" s="36"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
+        <v>251</v>
+      </c>
+      <c r="F87" s="37"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
       <c r="J87" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K87" s="30" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="L87" s="30"/>
       <c r="M87" s="30"/>
@@ -7376,34 +7357,34 @@
       <c r="R87" s="31"/>
       <c r="S87" s="32"/>
       <c r="T87" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="26" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="F88" s="36"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
+        <v>254</v>
+      </c>
+      <c r="F88" s="37"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
       <c r="J88" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K88" s="30" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
@@ -7414,34 +7395,34 @@
       <c r="R88" s="31"/>
       <c r="S88" s="32"/>
       <c r="T88" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="26" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B89" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F89" s="36"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
+        <v>257</v>
+      </c>
+      <c r="F89" s="37"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
       <c r="J89" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K89" s="30" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="L89" s="30"/>
       <c r="M89" s="30"/>
@@ -7452,34 +7433,34 @@
       <c r="R89" s="31"/>
       <c r="S89" s="32"/>
       <c r="T89" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="26" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B90" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="F90" s="36"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
+        <v>259</v>
+      </c>
+      <c r="F90" s="37"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
       <c r="J90" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K90" s="30" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="L90" s="30"/>
       <c r="M90" s="30"/>
@@ -7490,34 +7471,34 @@
       <c r="R90" s="31"/>
       <c r="S90" s="32"/>
       <c r="T90" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="26" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B91" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="F91" s="36"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
+        <v>262</v>
+      </c>
+      <c r="F91" s="37"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
       <c r="J91" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K91" s="30" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="L91" s="30"/>
       <c r="M91" s="30"/>
@@ -7528,34 +7509,34 @@
       <c r="R91" s="31"/>
       <c r="S91" s="32"/>
       <c r="T91" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="26" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B92" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="F92" s="36"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
+        <v>264</v>
+      </c>
+      <c r="F92" s="37"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
       <c r="J92" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K92" s="30" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="L92" s="30"/>
       <c r="M92" s="30"/>
@@ -7566,34 +7547,34 @@
       <c r="R92" s="31"/>
       <c r="S92" s="32"/>
       <c r="T92" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B93" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="F93" s="36"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
+        <v>266</v>
+      </c>
+      <c r="F93" s="37"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
       <c r="J93" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K93" s="30" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="L93" s="30"/>
       <c r="M93" s="30"/>
@@ -7604,34 +7585,34 @@
       <c r="R93" s="31"/>
       <c r="S93" s="32"/>
       <c r="T93" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B94" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="F94" s="36"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
+        <v>268</v>
+      </c>
+      <c r="F94" s="37"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
       <c r="J94" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K94" s="30" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
@@ -7642,34 +7623,34 @@
       <c r="R94" s="31"/>
       <c r="S94" s="32"/>
       <c r="T94" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B95" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="F95" s="36"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
+        <v>270</v>
+      </c>
+      <c r="F95" s="37"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
       <c r="J95" s="30" t="s">
         <v>68</v>
       </c>
       <c r="K95" s="30" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L95" s="30"/>
       <c r="M95" s="30"/>
@@ -7680,34 +7661,34 @@
       <c r="R95" s="31"/>
       <c r="S95" s="32"/>
       <c r="T95" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B96" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="F96" s="36"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
+        <v>272</v>
+      </c>
+      <c r="F96" s="37"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
       <c r="J96" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K96" s="30" t="s">
-        <v>214</v>
+      <c r="K96" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
@@ -7718,35 +7699,41 @@
       <c r="R96" s="31"/>
       <c r="S96" s="32"/>
       <c r="T96" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26" t="n">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="B97" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="F97" s="36"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="F97" s="29" t="n">
+        <v>45117</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>20230710162623</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>277</v>
+      </c>
       <c r="J97" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K97" s="30" t="s">
-        <v>217</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K97" s="30"/>
       <c r="L97" s="30"/>
       <c r="M97" s="30"/>
       <c r="N97" s="30"/>
@@ -7756,35 +7743,41 @@
       <c r="R97" s="31"/>
       <c r="S97" s="32"/>
       <c r="T97" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="26" t="n">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="B98" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="F98" s="36"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
+        <v>279</v>
+      </c>
+      <c r="F98" s="29" t="n">
+        <v>45117</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>20230710162631</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>281</v>
+      </c>
       <c r="J98" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K98" s="30" t="s">
-        <v>220</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K98" s="30"/>
       <c r="L98" s="30"/>
       <c r="M98" s="30"/>
       <c r="N98" s="30"/>
@@ -7794,35 +7787,41 @@
       <c r="R98" s="31"/>
       <c r="S98" s="32"/>
       <c r="T98" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="n">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="B99" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F99" s="36"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
+        <v>283</v>
+      </c>
+      <c r="F99" s="29" t="n">
+        <v>45117</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>20230710162640</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="J99" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K99" s="30" t="s">
-        <v>223</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K99" s="30"/>
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
       <c r="N99" s="30"/>
@@ -7832,178 +7831,76 @@
       <c r="R99" s="31"/>
       <c r="S99" s="32"/>
       <c r="T99" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="26" t="n">
-        <v>169</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="E100" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="F100" s="36"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="31"/>
-      <c r="S100" s="32"/>
-      <c r="T100" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="26" t="n">
-        <v>369</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="E101" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="F101" s="29" t="n">
-        <v>45117</v>
-      </c>
-      <c r="G101" s="0" t="n">
-        <v>20230710162623</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="J101" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="30"/>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="30"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="32"/>
-      <c r="T101" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="26" t="n">
-        <v>370</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="E102" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="F102" s="29" t="n">
-        <v>45117</v>
-      </c>
-      <c r="G102" s="0" t="n">
-        <v>20230710162631</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="J102" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="K102" s="30"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="30"/>
-      <c r="N102" s="30"/>
-      <c r="O102" s="30"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="30"/>
-      <c r="R102" s="31"/>
-      <c r="S102" s="32"/>
-      <c r="T102" s="33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="26" t="n">
-        <v>374</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="E103" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="F103" s="29" t="n">
-        <v>45117</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>20230710162640</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="J103" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
-      <c r="N103" s="30"/>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="31"/>
-      <c r="S103" s="32"/>
-      <c r="T103" s="33" t="s">
-        <v>57</v>
-      </c>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="14"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="14"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="14"/>
+    </row>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F104" s="11"/>
@@ -15996,72 +15893,16 @@
       <c r="T573" s="14"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F574" s="11"/>
-      <c r="G574" s="11"/>
-      <c r="H574" s="11"/>
-      <c r="I574" s="11"/>
-      <c r="J574" s="12"/>
-      <c r="K574" s="12"/>
-      <c r="L574" s="12"/>
-      <c r="M574" s="12"/>
-      <c r="N574" s="12"/>
-      <c r="O574" s="12"/>
-      <c r="P574" s="12"/>
-      <c r="Q574" s="12"/>
-      <c r="R574" s="13"/>
-      <c r="S574" s="2"/>
-      <c r="T574" s="14"/>
+      <c r="T574" s="12"/>
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F575" s="11"/>
-      <c r="G575" s="11"/>
-      <c r="H575" s="11"/>
-      <c r="I575" s="11"/>
-      <c r="J575" s="12"/>
-      <c r="K575" s="12"/>
-      <c r="L575" s="12"/>
-      <c r="M575" s="12"/>
-      <c r="N575" s="12"/>
-      <c r="O575" s="12"/>
-      <c r="P575" s="12"/>
-      <c r="Q575" s="12"/>
-      <c r="R575" s="13"/>
-      <c r="S575" s="2"/>
-      <c r="T575" s="14"/>
+      <c r="T575" s="12"/>
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F576" s="11"/>
-      <c r="G576" s="11"/>
-      <c r="H576" s="11"/>
-      <c r="I576" s="11"/>
-      <c r="J576" s="12"/>
-      <c r="K576" s="12"/>
-      <c r="L576" s="12"/>
-      <c r="M576" s="12"/>
-      <c r="N576" s="12"/>
-      <c r="O576" s="12"/>
-      <c r="P576" s="12"/>
-      <c r="Q576" s="12"/>
-      <c r="R576" s="13"/>
-      <c r="S576" s="2"/>
-      <c r="T576" s="14"/>
+      <c r="T576" s="12"/>
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F577" s="11"/>
-      <c r="G577" s="11"/>
-      <c r="H577" s="11"/>
-      <c r="I577" s="11"/>
-      <c r="J577" s="12"/>
-      <c r="K577" s="12"/>
-      <c r="L577" s="12"/>
-      <c r="M577" s="12"/>
-      <c r="N577" s="12"/>
-      <c r="O577" s="12"/>
-      <c r="P577" s="12"/>
-      <c r="Q577" s="12"/>
-      <c r="R577" s="13"/>
-      <c r="S577" s="2"/>
-      <c r="T577" s="14"/>
+      <c r="T577" s="12"/>
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T578" s="12"/>
@@ -16246,18 +16087,10 @@
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T638" s="12"/>
     </row>
-    <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T639" s="12"/>
-    </row>
-    <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T640" s="12"/>
-    </row>
-    <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T641" s="12"/>
-    </row>
-    <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T642" s="12"/>
-    </row>
+    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16609,7 +16442,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T103"/>
+  <autoFilter ref="A9:T99"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -16620,43 +16453,43 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J14 L10:M14 O10:O14 J17:J47 L24:M24 O24 L28:M28 O28 L32:M32 O32 L36:M46 O36:O46 J48:J70 J78:J81" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J14 L10:M14 O10:O14 J16:J44 L21:M21 O21 L25:M25 O25 L29:M29 O29 L33:M43 O33:O43 J45:J67 J75:J77" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q14 Q24 Q28 Q32 Q36:Q46" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q14 Q21 Q25 Q29 Q33:Q43" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L15:M15 O15 L17:M19 O17:O19 L25:M25 O25 L29:M29 O29 L33:M35 O33:O35 L47:M55 O47:O58 M56 L57:M58" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L15:M18 O15:O18 L22:M22 O22 L26:M26 O26 L30:M32 O30:O32 L44:M52 O44:O55 M53 L54:M55" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q15 Q17:Q19 Q25 Q29 Q33 Q47:Q58" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q15:Q18 Q22 Q26 Q30 Q44:Q55" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J101:J103 L101:M103 O101:O103" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J97:J99 L97:M99 O97:O99" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q101:Q103" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q97:Q99" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L26:M26 O26 L30:M30 O30 L59:M77 O59:O77 J71:J77 J82:J100 L82:M100 O82:O100" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L23:M23 O23 L27:M27 O27 L56:M74 O56:O74 J68:J74 J78:J96 L78:M96 O78:O96" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q26 Q30 Q34:Q35 Q59:Q77 Q82:Q100" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q23 Q27 Q31:Q32 Q56:Q74 Q78:Q96" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J15:J16 L16:M16 O16 L20:M23 O20:O23 L78:M81 O78:O81" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J15 L19:M20 O19:O20 L75:M77 O75:O77" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q16 Q20:Q23 Q78:Q81" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q19:Q20 Q75:Q77" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16686,7 +16519,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -16705,10 +16538,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16716,13 +16549,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16730,13 +16563,13 @@
         <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16744,97 +16577,97 @@
         <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>294</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C10" s="40" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16842,13 +16675,13 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C11" s="40" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16856,13 +16689,13 @@
         <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C12" s="40" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16870,83 +16703,83 @@
         <v>87</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C13" s="40" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C14" s="40" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C15" s="40" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C16" s="40" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C17" s="40" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C18" s="40" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16954,13 +16787,13 @@
         <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C19" s="40" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16968,13 +16801,13 @@
         <v>74</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C20" s="40" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16982,83 +16815,83 @@
         <v>87</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C21" s="40" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C22" s="40" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C23" s="40" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C24" s="40" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C25" s="40" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C26" s="40" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17066,13 +16899,13 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C27" s="40" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17080,13 +16913,13 @@
         <v>74</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C28" s="40" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17094,83 +16927,83 @@
         <v>87</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C29" s="40" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C30" s="40" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C31" s="40" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C32" s="40" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C33" s="40" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C34" s="40" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17178,7 +17011,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C35" s="40" t="n">
         <v>195</v>
@@ -17192,7 +17025,7 @@
         <v>74</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C36" s="40" t="n">
         <v>211</v>
@@ -17206,7 +17039,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C37" s="40" t="n">
         <v>227</v>
@@ -17217,10 +17050,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C38" s="40" t="n">
         <v>243</v>
@@ -17231,10 +17064,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C39" s="40" t="n">
         <v>259</v>
@@ -17245,10 +17078,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C40" s="40" t="n">
         <v>275</v>
@@ -17259,10 +17092,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C41" s="40" t="n">
         <v>291</v>
@@ -17273,10 +17106,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C42" s="40" t="n">
         <v>307</v>
@@ -17290,7 +17123,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C43" s="40" t="n">
         <v>196</v>
@@ -17304,7 +17137,7 @@
         <v>74</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C44" s="40" t="n">
         <v>212</v>
@@ -17318,7 +17151,7 @@
         <v>87</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C45" s="40" t="n">
         <v>228</v>
@@ -17329,10 +17162,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C46" s="40" t="n">
         <v>244</v>
@@ -17343,10 +17176,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C47" s="40" t="n">
         <v>260</v>
@@ -17357,10 +17190,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C48" s="40" t="n">
         <v>276</v>
@@ -17371,10 +17204,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C49" s="40" t="n">
         <v>292</v>
@@ -17385,10 +17218,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C50" s="40" t="n">
         <v>308</v>
@@ -18366,7 +18199,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -18383,15 +18216,15 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>68</v>

--- a/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111INNOGEASRLX/Innogea srl/CareMed/1.0/accreditamento-checklist_V8.1.2.xlsx
@@ -891,7 +891,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’inserimento della priorità della ricetta è obbligatorio in fase di accettazione della stessa. Non è possibile refertare se quest’informazione</t>
+    <t xml:space="preserve">infullfilmentof/order/id contiene sempre almeno l’identificativo dell’ordine interno, attribuito in fase di creazione della visita; se viene associata una prescrizione gli id saranno due. In nessun caso è possibile generare un referto XML che ne sia privo all’interno di CareMed.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT14_KO</t>
@@ -1926,7 +1926,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="230.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -3000,7 +3000,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -4104,14 +4104,14 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="A86" activeCellId="0" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.29"/>
@@ -6448,7 +6448,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26" t="n">
         <v>83</v>
       </c>
@@ -16519,7 +16519,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -18199,7 +18199,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
